--- a/BackTest/2020-01-25 BackTest XSR.xlsx
+++ b/BackTest/2020-01-25 BackTest XSR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-10939300.5969</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-10939300.5969</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-11091218.0357</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-11954584.2924</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-12030579.1341</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-12665503.6971</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-14362481.2132</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-16014106.789</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-16014106.789</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-16934332.5982</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-17278036.7688</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-17278036.7688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-18387576.5582</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-18620462.3955</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1243,14 +1243,10 @@
         <v>-19297747.6916</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="J26" t="n">
-        <v>4.291</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
@@ -1280,19 +1276,11 @@
         <v>-19646369.9007</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="J27" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1321,19 +1309,11 @@
         <v>-19586435.27260467</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="J28" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1362,19 +1342,11 @@
         <v>-20462647.56300467</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>4.495</v>
-      </c>
-      <c r="J29" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1406,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1445,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1484,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1523,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1562,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1601,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1640,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1679,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1718,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1757,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1796,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1835,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1874,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1913,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1952,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1991,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2030,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2069,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2108,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2147,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2186,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2225,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2264,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2303,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2342,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2381,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2420,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2459,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2498,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2537,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2576,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2615,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2654,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2693,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2732,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2771,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2810,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2849,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2888,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2927,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2966,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3005,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3044,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3083,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3122,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3161,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3200,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3239,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3278,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3317,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3356,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3395,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3434,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3470,17 +3124,11 @@
         <v>-20881545.57456695</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3509,17 +3157,11 @@
         <v>-20507472.75006695</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3548,17 +3190,11 @@
         <v>-20509478.79316695</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3587,17 +3223,11 @@
         <v>-21090048.27586695</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3626,17 +3256,11 @@
         <v>-21578106.23846695</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3668,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3704,17 +3322,11 @@
         <v>-21637113.15996695</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3743,17 +3355,11 @@
         <v>-21637341.64916695</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3782,17 +3388,11 @@
         <v>-21051490.27296695</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3824,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3863,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3902,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3941,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3980,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4019,14 +3589,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4058,14 +3622,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4097,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4136,14 +3688,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4175,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4214,14 +3754,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4253,14 +3787,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4292,14 +3820,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4331,14 +3853,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4370,14 +3886,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4409,14 +3919,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4448,14 +3952,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4487,14 +3985,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4526,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4565,14 +4051,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4604,14 +4084,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4643,14 +4117,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4682,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4721,14 +4183,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4760,14 +4216,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4799,14 +4249,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4838,14 +4282,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4877,14 +4315,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4916,14 +4348,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4955,14 +4381,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4994,14 +4414,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5033,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5072,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5111,14 +4513,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5150,14 +4546,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5189,14 +4579,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5228,14 +4612,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5267,14 +4645,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5306,14 +4678,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5345,14 +4711,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5384,14 +4744,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5423,14 +4777,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5462,14 +4810,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5501,14 +4843,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5540,14 +4876,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5579,14 +4909,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5618,14 +4942,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5657,14 +4975,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5696,14 +5008,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5735,14 +5041,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5774,14 +5074,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5813,14 +5107,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5852,14 +5140,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5891,14 +5173,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5930,14 +5206,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5969,14 +5239,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6008,14 +5272,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6047,14 +5305,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6086,14 +5338,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6122,23 +5368,15 @@
         <v>-23072341.37630446</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
-        <v>1.082625262176649</v>
-      </c>
-      <c r="M151" t="n">
-        <v>1.068075117370892</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6163,7 +5401,7 @@
         <v>-22778339.97440446</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6196,7 +5434,7 @@
         <v>-22287346.80140446</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6229,7 +5467,7 @@
         <v>-22958456.28620446</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6328,7 +5566,7 @@
         <v>-23384347.00020446</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -9133,11 +8371,17 @@
         <v>-31036242.67620445</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>4.5</v>
+      </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9166,11 +8410,17 @@
         <v>-30491559.56460445</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>4.491</v>
+      </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9199,11 +8449,17 @@
         <v>-30491559.56460445</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>4.495</v>
+      </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9232,11 +8488,17 @@
         <v>-30491559.56460445</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>4.495</v>
+      </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9265,11 +8527,17 @@
         <v>-30491559.56460445</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>4.495</v>
+      </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9298,11 +8566,17 @@
         <v>-30491559.56460445</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>4.495</v>
+      </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9331,11 +8605,17 @@
         <v>-31420321.35970445</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>4.495</v>
+      </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9364,11 +8644,17 @@
         <v>-31420321.35970445</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>4.488</v>
+      </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9397,11 +8683,17 @@
         <v>-31420321.35970445</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>4.488</v>
+      </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9430,11 +8722,17 @@
         <v>-31420321.35970445</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>4.488</v>
+      </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9463,11 +8761,17 @@
         <v>-31420321.35970445</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>4.488</v>
+      </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9496,11 +8800,17 @@
         <v>-31002525.37190446</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>4.488</v>
+      </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9529,11 +8839,17 @@
         <v>-31002525.37190446</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>4.567</v>
+      </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9566,7 +8882,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9595,11 +8915,17 @@
         <v>-31818645.15170446</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>4.515</v>
+      </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9628,11 +8954,17 @@
         <v>-32815629.74110446</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>4.52</v>
+      </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9661,11 +8993,17 @@
         <v>-32298744.72780446</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>4.501</v>
+      </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9694,11 +9032,17 @@
         <v>-32304572.98780446</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>4.513</v>
+      </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9727,11 +9071,17 @@
         <v>-33109706.41400446</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>4.51</v>
+      </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9760,11 +9110,17 @@
         <v>-32687656.65220446</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>4.503</v>
+      </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9797,7 +9153,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9830,7 +9190,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9863,7 +9227,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9892,11 +9260,17 @@
         <v>-31711469.62110446</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>4.501</v>
+      </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9929,7 +9303,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9958,11 +9336,17 @@
         <v>-31220935.43660446</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>4.502</v>
+      </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9995,7 +9379,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10024,11 +9412,17 @@
         <v>-31145492.29870446</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>4.504</v>
+      </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10061,7 +9455,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10090,7 +9488,7 @@
         <v>-31135492.29870446</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>4.504</v>
@@ -10098,7 +9496,7 @@
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L271" t="n">
@@ -10129,7 +9527,7 @@
         <v>-31784127.89770446</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I272" t="n">
         <v>4.509</v>
@@ -10168,7 +9566,7 @@
         <v>-31990720.94100446</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I273" t="n">
         <v>4.503</v>
@@ -10207,9 +9605,11 @@
         <v>-31990720.94100446</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>4.502</v>
+      </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
@@ -10244,9 +9644,11 @@
         <v>-31807661.82240446</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>4.502</v>
+      </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
@@ -10281,9 +9683,11 @@
         <v>-32420499.47660445</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>4.517</v>
+      </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
@@ -10392,9 +9796,11 @@
         <v>-30666610.18580445</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>4.48</v>
+      </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
@@ -10873,11 +10279,9 @@
         <v>-30694220.52120445</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
-      </c>
-      <c r="I292" t="n">
-        <v>4.508</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
@@ -10912,11 +10316,9 @@
         <v>-30694109.79610445</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
-      </c>
-      <c r="I293" t="n">
-        <v>4.508</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
@@ -10951,11 +10353,9 @@
         <v>-31312359.27820445</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
-      </c>
-      <c r="I294" t="n">
-        <v>4.517</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
@@ -10990,11 +10390,9 @@
         <v>-30556347.92000445</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
-      </c>
-      <c r="I295" t="n">
-        <v>4.508</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
@@ -11029,11 +10427,9 @@
         <v>-30266812.52290445</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
-      </c>
-      <c r="I296" t="n">
-        <v>4.509</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
@@ -11068,11 +10464,9 @@
         <v>-30266573.39690445</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
-      </c>
-      <c r="I297" t="n">
-        <v>4.512</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
@@ -11107,11 +10501,9 @@
         <v>-31261608.73000445</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
-      </c>
-      <c r="I298" t="n">
-        <v>4.513</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
@@ -11146,11 +10538,9 @@
         <v>-30954889.34710445</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
-      </c>
-      <c r="I299" t="n">
-        <v>4.509</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
@@ -11185,11 +10575,9 @@
         <v>-30954889.34710445</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
-      </c>
-      <c r="I300" t="n">
-        <v>4.527</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
@@ -11224,11 +10612,9 @@
         <v>-31321273.73060445</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
-      </c>
-      <c r="I301" t="n">
-        <v>4.527</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
@@ -11263,11 +10649,9 @@
         <v>-31003041.46570445</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
-      </c>
-      <c r="I302" t="n">
-        <v>4.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
@@ -11339,11 +10723,9 @@
         <v>-31595919.32770445</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
-      </c>
-      <c r="I304" t="n">
-        <v>4.534</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
@@ -11378,11 +10760,9 @@
         <v>-32205360.30010445</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
-      </c>
-      <c r="I305" t="n">
-        <v>4.527</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
@@ -11417,11 +10797,9 @@
         <v>-31623038.90170445</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
-      </c>
-      <c r="I306" t="n">
-        <v>4.524</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
@@ -11456,11 +10834,9 @@
         <v>-31214426.14470445</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
-      </c>
-      <c r="I307" t="n">
-        <v>4.525</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
@@ -11495,11 +10871,9 @@
         <v>-31269492.54890445</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
-      </c>
-      <c r="I308" t="n">
-        <v>4.526</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
@@ -11534,11 +10908,9 @@
         <v>-31290277.16980445</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
-      </c>
-      <c r="I309" t="n">
-        <v>4.525</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
@@ -11573,11 +10945,9 @@
         <v>-30722900.38710445</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
-      </c>
-      <c r="I310" t="n">
-        <v>4.524</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
@@ -11612,11 +10982,9 @@
         <v>-30704149.84770445</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
-      </c>
-      <c r="I311" t="n">
-        <v>4.525</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
@@ -11651,11 +11019,9 @@
         <v>-30723895.23760445</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
-      </c>
-      <c r="I312" t="n">
-        <v>4.534</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
@@ -11690,11 +11056,9 @@
         <v>-30049018.87870445</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
-      </c>
-      <c r="I313" t="n">
-        <v>4.524</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
@@ -11729,11 +11093,9 @@
         <v>-29540502.74200445</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
-      </c>
-      <c r="I314" t="n">
-        <v>4.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
@@ -11768,11 +11130,9 @@
         <v>-29466654.97810445</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
-      </c>
-      <c r="I315" t="n">
-        <v>4.534</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
@@ -11807,11 +11167,9 @@
         <v>-28904064.45260445</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
-      </c>
-      <c r="I316" t="n">
-        <v>4.535</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
@@ -11846,11 +11204,9 @@
         <v>-28685860.08660445</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
-      </c>
-      <c r="I317" t="n">
-        <v>4.537</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
@@ -11885,11 +11241,9 @@
         <v>-28685860.08660445</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
-      </c>
-      <c r="I318" t="n">
-        <v>4.555</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
@@ -11924,11 +11278,9 @@
         <v>-28685860.08660445</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
-      </c>
-      <c r="I319" t="n">
-        <v>4.555</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
@@ -11963,11 +11315,9 @@
         <v>-28685550.08660445</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
-      </c>
-      <c r="I320" t="n">
-        <v>4.555</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
@@ -12002,11 +11352,9 @@
         <v>-28684441.46150445</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
-      </c>
-      <c r="I321" t="n">
-        <v>4.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
@@ -12041,11 +11389,9 @@
         <v>-29199121.97530445</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
-      </c>
-      <c r="I322" t="n">
-        <v>4.565</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
@@ -12080,11 +11426,9 @@
         <v>-28775637.25830445</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
-      </c>
-      <c r="I323" t="n">
-        <v>4.556</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
@@ -12119,11 +11463,9 @@
         <v>-28481389.01970445</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
-      </c>
-      <c r="I324" t="n">
-        <v>4.564</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
@@ -12158,11 +11500,9 @@
         <v>-28267243.40350445</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
-      </c>
-      <c r="I325" t="n">
-        <v>4.565</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
@@ -12197,11 +11537,9 @@
         <v>-28267243.40350445</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
-      </c>
-      <c r="I326" t="n">
-        <v>4.621</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
@@ -12236,11 +11574,9 @@
         <v>-28267243.40350445</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
-      </c>
-      <c r="I327" t="n">
-        <v>4.621</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
@@ -12275,11 +11611,9 @@
         <v>-27887347.67970445</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
-      </c>
-      <c r="I328" t="n">
-        <v>4.621</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
@@ -12314,16 +11648,18 @@
         <v>-26845655.77720445</v>
       </c>
       <c r="H329" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L329" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
       <c r="M329" t="inlineStr"/>
     </row>
     <row r="330">
@@ -12349,15 +11685,13 @@
         <v>-26097673.30830445</v>
       </c>
       <c r="H330" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>4.621</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L330" t="n">
@@ -12388,11 +11722,15 @@
         <v>-26191056.05650445</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12421,11 +11759,15 @@
         <v>-27001478.98580445</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12454,11 +11796,17 @@
         <v>-26403033.10690445</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>4.616</v>
+      </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12487,15 +11835,13 @@
         <v>-26723945.39010445</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
-      </c>
-      <c r="I334" t="n">
-        <v>4.628</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L334" t="n">
@@ -12526,9 +11872,11 @@
         <v>-26797988.42360445</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>4.622</v>
+      </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
@@ -12563,11 +11911,9 @@
         <v>-26761911.51710445</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
-      </c>
-      <c r="I336" t="n">
-        <v>4.621</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
@@ -12602,7 +11948,7 @@
         <v>-26761911.51710445</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I337" t="n">
         <v>4.629</v>
@@ -12641,11 +11987,9 @@
         <v>-27332868.53400445</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
-      </c>
-      <c r="I338" t="n">
-        <v>4.629</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
@@ -12680,7 +12024,7 @@
         <v>-27770283.77450445</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I339" t="n">
         <v>4.621</v>
@@ -12719,7 +12063,7 @@
         <v>-27848676.56060445</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I340" t="n">
         <v>4.619</v>
@@ -12758,9 +12102,11 @@
         <v>-27139312.86640444</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>4.6</v>
+      </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
@@ -12795,9 +12141,11 @@
         <v>-27799598.77840444</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>4.609</v>
+      </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
@@ -12832,9 +12180,11 @@
         <v>-27385630.20550444</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>4.597</v>
+      </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
@@ -12869,9 +12219,11 @@
         <v>-27012517.34480444</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>4.601</v>
+      </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
@@ -12906,9 +12258,11 @@
         <v>-27012517.34480444</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>4.604</v>
+      </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
@@ -12943,9 +12297,11 @@
         <v>-26599247.77470445</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>4.604</v>
+      </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
@@ -12980,9 +12336,11 @@
         <v>-26700529.87340445</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>4.605</v>
+      </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
@@ -13017,9 +12375,11 @@
         <v>-26184063.08470445</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>4.604</v>
+      </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
@@ -13054,9 +12414,11 @@
         <v>-26170687.71640445</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>4.609</v>
+      </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
@@ -13091,9 +12453,11 @@
         <v>-25369754.85390445</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>4.61</v>
+      </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
@@ -13128,9 +12492,11 @@
         <v>-25369754.85390445</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>4.62</v>
+      </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
@@ -13165,9 +12531,11 @@
         <v>-25369646.60140445</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>4.62</v>
+      </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
@@ -13276,9 +12644,11 @@
         <v>-26095354.64400445</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>4.615</v>
+      </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
@@ -13313,9 +12683,11 @@
         <v>-26552382.34170445</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>4.615</v>
+      </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
@@ -13387,9 +12759,11 @@
         <v>-26592726.12800445</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>4.62</v>
+      </c>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
@@ -13461,9 +12835,11 @@
         <v>-26240630.20510445</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>4.611</v>
+      </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
@@ -13498,9 +12874,11 @@
         <v>-26312929.69820445</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>4.612</v>
+      </c>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
@@ -13609,9 +12987,11 @@
         <v>-27614495.21420445</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>4.571</v>
+      </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
@@ -13683,9 +13063,11 @@
         <v>-27104836.69430444</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>4.563</v>
+      </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
@@ -13720,9 +13102,11 @@
         <v>-26251004.64010444</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>4.56</v>
+      </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
@@ -13757,9 +13141,11 @@
         <v>-26650546.83630444</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>4.562</v>
+      </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
@@ -13794,9 +13180,11 @@
         <v>-26665116.06570444</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>4.561</v>
+      </c>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
@@ -13831,9 +13219,11 @@
         <v>-27501796.97790444</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>4.55</v>
+      </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
@@ -13905,9 +13295,11 @@
         <v>-27253036.08750444</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>4.511</v>
+      </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
@@ -13942,9 +13334,11 @@
         <v>-26739851.34920444</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>4.522</v>
+      </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
@@ -13979,9 +13373,11 @@
         <v>-27502418.59550444</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>4.526</v>
+      </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
@@ -14016,9 +13412,11 @@
         <v>-28308190.63690444</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>4.524</v>
+      </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
@@ -14053,9 +13451,11 @@
         <v>-27551085.08250444</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>4.512</v>
+      </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
@@ -14090,9 +13490,11 @@
         <v>-28059477.09730444</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>4.517</v>
+      </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
@@ -14127,9 +13529,11 @@
         <v>-28059698.46450444</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>4.515</v>
+      </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
@@ -14164,9 +13568,11 @@
         <v>-27391487.53130444</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>4.514</v>
+      </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
@@ -14201,9 +13607,11 @@
         <v>-26638785.08480444</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>4.516</v>
+      </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
@@ -14719,11 +14127,9 @@
         <v>-26864953.95030444</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
-      </c>
-      <c r="I394" t="n">
-        <v>4.517</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
@@ -14795,11 +14201,9 @@
         <v>-27399996.89160444</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
-      </c>
-      <c r="I396" t="n">
-        <v>4.514</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
@@ -14871,11 +14275,9 @@
         <v>-26997070.73680444</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
-      </c>
-      <c r="I398" t="n">
-        <v>4.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
@@ -14910,11 +14312,9 @@
         <v>-26593022.53120444</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
-      </c>
-      <c r="I399" t="n">
-        <v>4.513</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
@@ -14949,11 +14349,9 @@
         <v>-26592872.39500444</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
-      </c>
-      <c r="I400" t="n">
-        <v>4.514</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
@@ -15025,11 +14423,9 @@
         <v>-25772524.44530443</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
-      </c>
-      <c r="I402" t="n">
-        <v>4.516</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
@@ -15064,11 +14460,9 @@
         <v>-26558045.09200443</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
-      </c>
-      <c r="I403" t="n">
-        <v>4.517</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
@@ -15547,11 +14941,9 @@
         <v>-25076445.77680443</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
-      </c>
-      <c r="I416" t="n">
-        <v>4.515</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
@@ -15586,11 +14978,9 @@
         <v>-25076445.77680443</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
-      </c>
-      <c r="I417" t="n">
-        <v>4.517</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
@@ -15625,11 +15015,9 @@
         <v>-25076445.77680443</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
-      </c>
-      <c r="I418" t="n">
-        <v>4.517</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
@@ -15664,11 +15052,9 @@
         <v>-24631855.49790443</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
-      </c>
-      <c r="I419" t="n">
-        <v>4.517</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
@@ -15703,11 +15089,9 @@
         <v>-24630433.42270443</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
-      </c>
-      <c r="I420" t="n">
-        <v>4.519</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
@@ -15742,11 +15126,9 @@
         <v>-24629850.26400443</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
-      </c>
-      <c r="I421" t="n">
-        <v>4.526</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
@@ -15781,11 +15163,9 @@
         <v>-25397392.80740443</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
-      </c>
-      <c r="I422" t="n">
-        <v>4.544</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
@@ -15820,11 +15200,9 @@
         <v>-25388170.58510443</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
-      </c>
-      <c r="I423" t="n">
-        <v>4.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
@@ -15859,11 +15237,9 @@
         <v>-26019543.85710443</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
-      </c>
-      <c r="I424" t="n">
-        <v>4.544</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
@@ -15898,11 +15274,9 @@
         <v>-25589205.15410443</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
-      </c>
-      <c r="I425" t="n">
-        <v>4.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
@@ -15937,11 +15311,9 @@
         <v>-25463579.29550442</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
-      </c>
-      <c r="I426" t="n">
-        <v>4.542</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
@@ -15976,11 +15348,9 @@
         <v>-24680689.91680443</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
-      </c>
-      <c r="I427" t="n">
-        <v>4.543</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
@@ -16015,11 +15385,9 @@
         <v>-24293173.85290442</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
-      </c>
-      <c r="I428" t="n">
-        <v>4.544</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
@@ -16054,11 +15422,9 @@
         <v>-24293173.85290442</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
-      </c>
-      <c r="I429" t="n">
-        <v>4.551</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
@@ -16093,11 +15459,9 @@
         <v>-23989380.73850442</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
-      </c>
-      <c r="I430" t="n">
-        <v>4.551</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
@@ -16132,11 +15496,9 @@
         <v>-23871879.53800442</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
-      </c>
-      <c r="I431" t="n">
-        <v>4.562</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
@@ -16171,11 +15533,9 @@
         <v>-23029043.96300443</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
-      </c>
-      <c r="I432" t="n">
-        <v>4.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
@@ -16210,11 +15570,9 @@
         <v>-22939043.96300443</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
-      </c>
-      <c r="I433" t="n">
-        <v>4.603</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
@@ -16397,16 +15755,18 @@
         <v>-23178825.03310442</v>
       </c>
       <c r="H438" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L438" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L438" t="n">
+        <v>1</v>
+      </c>
       <c r="M438" t="inlineStr"/>
     </row>
     <row r="439">
@@ -16436,7 +15796,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16465,11 +15829,15 @@
         <v>-23623292.97160442</v>
       </c>
       <c r="H440" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16498,11 +15866,15 @@
         <v>-24342123.87000442</v>
       </c>
       <c r="H441" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16535,7 +15907,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16564,15 +15940,15 @@
         <v>-24341817.50370442</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
-      </c>
-      <c r="I443" t="n">
-        <v>4.572</v>
-      </c>
-      <c r="J443" t="n">
-        <v>4.572</v>
-      </c>
-      <c r="K443" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16604,12 +15980,10 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L444" t="n">
@@ -16643,9 +16017,7 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16682,9 +16054,7 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16721,9 +16091,7 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16760,9 +16128,7 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16799,9 +16165,7 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16838,9 +16202,7 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16877,9 +16239,7 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16916,9 +16276,7 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16955,9 +16313,7 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16994,9 +16350,7 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17033,9 +16387,7 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17072,9 +16424,7 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17111,9 +16461,7 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17150,9 +16498,7 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17189,9 +16535,7 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17228,9 +16572,7 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17267,9 +16609,7 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17306,9 +16646,7 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17345,9 +16683,7 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17384,9 +16720,7 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17423,9 +16757,7 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17462,9 +16794,7 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17501,9 +16831,7 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17540,9 +16868,7 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17579,9 +16905,7 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17618,9 +16942,7 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17657,9 +16979,7 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17696,9 +17016,7 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17735,9 +17053,7 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17774,9 +17090,7 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17813,9 +17127,7 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17852,9 +17164,7 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17891,9 +17201,7 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17930,9 +17238,7 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17969,9 +17275,7 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18008,9 +17312,7 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18047,9 +17349,7 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18086,9 +17386,7 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18125,9 +17423,7 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18164,9 +17460,7 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18203,9 +17497,7 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18242,9 +17534,7 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18281,9 +17571,7 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18320,9 +17608,7 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18359,9 +17645,7 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18398,9 +17682,7 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18437,9 +17719,7 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18476,9 +17756,7 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18515,9 +17793,7 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18554,9 +17830,7 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18593,9 +17867,7 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18632,9 +17904,7 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18671,9 +17941,7 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18710,9 +17978,7 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18749,9 +18015,7 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18788,9 +18052,7 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18827,9 +18089,7 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18866,9 +18126,7 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18905,9 +18163,7 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18944,9 +18200,7 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18983,9 +18237,7 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19022,9 +18274,7 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19061,9 +18311,7 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19100,9 +18348,7 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19139,9 +18385,7 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19178,9 +18422,7 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19217,9 +18459,7 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19256,9 +18496,7 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19295,9 +18533,7 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19334,9 +18570,7 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19373,9 +18607,7 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19412,9 +18644,7 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19451,9 +18681,7 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19490,9 +18718,7 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19529,9 +18755,7 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19568,9 +18792,7 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19607,9 +18829,7 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19646,9 +18866,7 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19685,9 +18903,7 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19724,9 +18940,7 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19763,9 +18977,7 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19802,9 +19014,7 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19841,9 +19051,7 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19880,9 +19088,7 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19919,9 +19125,7 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19958,9 +19162,7 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19997,9 +19199,7 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20036,9 +19236,7 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20075,9 +19273,7 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20114,9 +19310,7 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20153,9 +19347,7 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20192,9 +19384,7 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20231,9 +19421,7 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20270,9 +19458,7 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20309,9 +19495,7 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20348,9 +19532,7 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20387,9 +19569,7 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20426,9 +19606,7 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20465,9 +19643,7 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20501,14 +19677,10 @@
         <v>-23287888.36109556</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
-      </c>
-      <c r="I544" t="n">
-        <v>4.531</v>
-      </c>
-      <c r="J544" t="n">
-        <v>4.572</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I544" t="inlineStr"/>
+      <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20545,9 +19717,7 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20584,9 +19754,7 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20623,9 +19791,7 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20662,9 +19828,7 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20701,9 +19865,7 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20740,9 +19902,7 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20779,9 +19939,7 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20818,9 +19976,7 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20857,9 +20013,7 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20896,9 +20050,7 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20935,9 +20087,7 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20974,9 +20124,7 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21013,9 +20161,7 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21049,14 +20195,10 @@
         <v>-21446348.93929556</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
-      </c>
-      <c r="I558" t="n">
-        <v>4.531</v>
-      </c>
-      <c r="J558" t="n">
-        <v>4.572</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I558" t="inlineStr"/>
+      <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21093,9 +20235,7 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21129,14 +20269,10 @@
         <v>-21258671.68999556</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
-      </c>
-      <c r="I560" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="J560" t="n">
-        <v>4.572</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I560" t="inlineStr"/>
+      <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21170,14 +20306,10 @@
         <v>-21256934.05889557</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
-      </c>
-      <c r="I561" t="n">
-        <v>4.514</v>
-      </c>
-      <c r="J561" t="n">
-        <v>4.572</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I561" t="inlineStr"/>
+      <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21211,14 +20343,10 @@
         <v>-22001478.58509557</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
-      </c>
-      <c r="I562" t="n">
-        <v>4.554</v>
-      </c>
-      <c r="J562" t="n">
-        <v>4.572</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I562" t="inlineStr"/>
+      <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21255,9 +20383,7 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21294,9 +20420,7 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21330,14 +20454,10 @@
         <v>-21649828.96139557</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
-      </c>
-      <c r="I565" t="n">
-        <v>4.521</v>
-      </c>
-      <c r="J565" t="n">
-        <v>4.572</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I565" t="inlineStr"/>
+      <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21374,9 +20494,7 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21413,9 +20531,7 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21452,9 +20568,7 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21491,9 +20605,7 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21530,9 +20642,7 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21566,14 +20676,10 @@
         <v>-21616844.84249557</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
-      </c>
-      <c r="I571" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="J571" t="n">
-        <v>4.572</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I571" t="inlineStr"/>
+      <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21610,9 +20716,7 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21649,9 +20753,7 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21685,14 +20787,10 @@
         <v>-20953595.45889557</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
-      </c>
-      <c r="I574" t="n">
-        <v>4.559</v>
-      </c>
-      <c r="J574" t="n">
-        <v>4.572</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I574" t="inlineStr"/>
+      <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21726,14 +20824,10 @@
         <v>-20953595.45889557</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
-      </c>
-      <c r="I575" t="n">
-        <v>4.559</v>
-      </c>
-      <c r="J575" t="n">
-        <v>4.572</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I575" t="inlineStr"/>
+      <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21767,14 +20861,10 @@
         <v>-20163144.78869557</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
-      </c>
-      <c r="I576" t="n">
-        <v>4.559</v>
-      </c>
-      <c r="J576" t="n">
-        <v>4.572</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I576" t="inlineStr"/>
+      <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21808,14 +20898,10 @@
         <v>-20163144.78869557</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
-      </c>
-      <c r="I577" t="n">
-        <v>4.564</v>
-      </c>
-      <c r="J577" t="n">
-        <v>4.572</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I577" t="inlineStr"/>
+      <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21849,14 +20935,10 @@
         <v>-20174042.84839557</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
-      </c>
-      <c r="I578" t="n">
-        <v>4.564</v>
-      </c>
-      <c r="J578" t="n">
-        <v>4.572</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I578" t="inlineStr"/>
+      <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21890,14 +20972,10 @@
         <v>-19485830.57229557</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
-      </c>
-      <c r="I579" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="J579" t="n">
-        <v>4.572</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I579" t="inlineStr"/>
+      <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21931,14 +21009,10 @@
         <v>-19485830.57229557</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
-      </c>
-      <c r="I580" t="n">
-        <v>4.565</v>
-      </c>
-      <c r="J580" t="n">
-        <v>4.572</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I580" t="inlineStr"/>
+      <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21972,14 +21046,10 @@
         <v>-18692431.07929557</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
-      </c>
-      <c r="I581" t="n">
-        <v>4.565</v>
-      </c>
-      <c r="J581" t="n">
-        <v>4.572</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I581" t="inlineStr"/>
+      <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22013,19 +21083,17 @@
         <v>-17974470.83829557</v>
       </c>
       <c r="H582" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L582" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="M582" t="inlineStr"/>
     </row>
@@ -22052,15 +21120,15 @@
         <v>-17466953.18559557</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
-      </c>
-      <c r="I583" t="n">
-        <v>4.572</v>
-      </c>
-      <c r="J583" t="n">
-        <v>4.572</v>
-      </c>
-      <c r="K583" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I583" t="inlineStr"/>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -22089,17 +21157,13 @@
         <v>-16677579.58209557</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
-      </c>
-      <c r="I584" t="n">
-        <v>4.576</v>
-      </c>
-      <c r="J584" t="n">
-        <v>4.572</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I584" t="inlineStr"/>
+      <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L584" t="n">
@@ -22130,17 +21194,13 @@
         <v>-16677469.56959557</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
-      </c>
-      <c r="I585" t="n">
-        <v>4.577</v>
-      </c>
-      <c r="J585" t="n">
-        <v>4.572</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I585" t="inlineStr"/>
+      <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L585" t="n">
@@ -22171,17 +21231,13 @@
         <v>-17027991.09719557</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
-      </c>
-      <c r="I586" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="J586" t="n">
-        <v>4.572</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I586" t="inlineStr"/>
+      <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L586" t="n">
@@ -22212,14 +21268,10 @@
         <v>-17027991.09719557</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
-      </c>
-      <c r="I587" t="n">
-        <v>4.578</v>
-      </c>
-      <c r="J587" t="n">
-        <v>4.572</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I587" t="inlineStr"/>
+      <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22256,9 +21308,7 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22295,9 +21345,7 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22331,12 +21379,10 @@
         <v>-18393793.29739557</v>
       </c>
       <c r="H590" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22370,12 +21416,10 @@
         <v>-18393793.29739557</v>
       </c>
       <c r="H591" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22412,9 +21456,7 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22448,12 +21490,10 @@
         <v>-18394367.23649557</v>
       </c>
       <c r="H593" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22490,9 +21530,7 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22526,12 +21564,10 @@
         <v>-18753819.70419557</v>
       </c>
       <c r="H595" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22568,9 +21604,7 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22604,19 +21638,17 @@
         <v>-19363152.64809557</v>
       </c>
       <c r="H597" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>4.572</v>
-      </c>
+      <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L597" t="n">
-        <v>0.994562554680665</v>
+        <v>1</v>
       </c>
       <c r="M597" t="inlineStr"/>
     </row>
@@ -22647,7 +21679,11 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -22680,7 +21716,11 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -22713,7 +21753,11 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -22746,7 +21790,11 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -22779,7 +21827,11 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -22812,7 +21864,11 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -22845,7 +21901,11 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -22878,7 +21938,11 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -22907,15 +21971,15 @@
         <v>-22090667.50439557</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
-      </c>
-      <c r="I606" t="n">
-        <v>4.547</v>
-      </c>
-      <c r="J606" t="n">
-        <v>4.547</v>
-      </c>
-      <c r="K606" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I606" t="inlineStr"/>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -22947,12 +22011,10 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>4.547</v>
-      </c>
+      <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L607" t="n">
@@ -22986,12 +22048,10 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>4.547</v>
-      </c>
+      <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L608" t="n">
@@ -23022,15 +22082,15 @@
         <v>-21522512.82789557</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
-      </c>
-      <c r="I609" t="n">
-        <v>4.548</v>
-      </c>
-      <c r="J609" t="n">
-        <v>4.548</v>
-      </c>
-      <c r="K609" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I609" t="inlineStr"/>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -23059,17 +22119,13 @@
         <v>-21522512.82789557</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
-      </c>
-      <c r="I610" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="J610" t="n">
-        <v>4.548</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I610" t="inlineStr"/>
+      <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L610" t="n">
@@ -23100,17 +22156,13 @@
         <v>-20226906.45069557</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
-      </c>
-      <c r="I611" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="J611" t="n">
-        <v>4.548</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I611" t="inlineStr"/>
+      <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L611" t="n">
@@ -23141,15 +22193,15 @@
         <v>-20572822.57679557</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
-      </c>
-      <c r="I612" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="J612" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="K612" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I612" t="inlineStr"/>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -23178,17 +22230,13 @@
         <v>-20572822.57679557</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
-      </c>
-      <c r="I613" t="n">
-        <v>4.554</v>
-      </c>
-      <c r="J613" t="n">
-        <v>4.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I613" t="inlineStr"/>
+      <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L613" t="n">
@@ -23219,17 +22267,13 @@
         <v>-20220238.91859557</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
-      </c>
-      <c r="I614" t="n">
-        <v>4.554</v>
-      </c>
-      <c r="J614" t="n">
-        <v>4.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I614" t="inlineStr"/>
+      <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L614" t="n">
@@ -23260,14 +22304,10 @@
         <v>-19423839.52709557</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
-      </c>
-      <c r="I615" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="J615" t="n">
-        <v>4.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I615" t="inlineStr"/>
+      <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23301,14 +22341,10 @@
         <v>-20003158.17569557</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
-      </c>
-      <c r="I616" t="n">
-        <v>4.565</v>
-      </c>
-      <c r="J616" t="n">
-        <v>4.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I616" t="inlineStr"/>
+      <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23342,14 +22378,10 @@
         <v>-19220676.46859557</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
-      </c>
-      <c r="I617" t="n">
-        <v>4.561</v>
-      </c>
-      <c r="J617" t="n">
-        <v>4.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I617" t="inlineStr"/>
+      <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23383,14 +22415,10 @@
         <v>-19944395.01879557</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
-      </c>
-      <c r="I618" t="n">
-        <v>4.575</v>
-      </c>
-      <c r="J618" t="n">
-        <v>4.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I618" t="inlineStr"/>
+      <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23427,9 +22455,7 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>4.56</v>
-      </c>
+      <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23463,14 +22489,10 @@
         <v>-19627884.77389557</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
-      </c>
-      <c r="I620" t="n">
-        <v>4.564</v>
-      </c>
-      <c r="J620" t="n">
-        <v>4.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I620" t="inlineStr"/>
+      <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23507,9 +22529,7 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>4.56</v>
-      </c>
+      <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23546,9 +22566,7 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>4.56</v>
-      </c>
+      <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23585,9 +22603,7 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>4.56</v>
-      </c>
+      <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23624,9 +22640,7 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>4.56</v>
-      </c>
+      <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23663,9 +22677,7 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>4.56</v>
-      </c>
+      <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23702,9 +22714,7 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>4.56</v>
-      </c>
+      <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23741,9 +22751,7 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>4.56</v>
-      </c>
+      <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23777,19 +22785,17 @@
         <v>-18611373.59399557</v>
       </c>
       <c r="H628" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>4.56</v>
-      </c>
+      <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L628" t="n">
-        <v>0.9954385964912281</v>
+        <v>1</v>
       </c>
       <c r="M628" t="inlineStr"/>
     </row>
@@ -23820,7 +22826,11 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -23849,11 +22859,15 @@
         <v>-18590359.61079557</v>
       </c>
       <c r="H630" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -23882,11 +22896,15 @@
         <v>-18580439.65019557</v>
       </c>
       <c r="H631" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -23915,11 +22933,15 @@
         <v>-19361007.08589557</v>
       </c>
       <c r="H632" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -23952,7 +22974,11 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -23985,7 +23011,11 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -24018,7 +23048,11 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -24047,11 +23081,15 @@
         <v>-17350460.74459557</v>
       </c>
       <c r="H636" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -24080,11 +23118,15 @@
         <v>-17326051.91139557</v>
       </c>
       <c r="H637" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -24113,11 +23155,15 @@
         <v>-18383012.63169557</v>
       </c>
       <c r="H638" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -24146,11 +23192,15 @@
         <v>-18383997.10209557</v>
       </c>
       <c r="H639" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -24179,11 +23229,15 @@
         <v>-17770298.44859558</v>
       </c>
       <c r="H640" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -24212,11 +23266,15 @@
         <v>-18235389.45139557</v>
       </c>
       <c r="H641" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -24245,11 +23303,15 @@
         <v>-18230895.45139557</v>
       </c>
       <c r="H642" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -24278,11 +23340,15 @@
         <v>-18102999.77729557</v>
       </c>
       <c r="H643" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -24311,11 +23377,15 @@
         <v>-20881803.67259558</v>
       </c>
       <c r="H644" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -24348,7 +23418,11 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -24377,11 +23451,15 @@
         <v>-21167257.70479558</v>
       </c>
       <c r="H646" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -24414,7 +23492,11 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -24443,11 +23525,15 @@
         <v>-21311271.16109557</v>
       </c>
       <c r="H648" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -24480,7 +23566,11 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -24513,7 +23603,11 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -24546,7 +23640,11 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -24579,7 +23677,11 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -24612,7 +23714,11 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -24645,7 +23751,11 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -24678,7 +23788,11 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -24711,7 +23825,11 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -24744,7 +23862,11 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -24777,7 +23899,11 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -24810,7 +23936,11 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -24843,7 +23973,11 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -24876,7 +24010,11 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -24909,7 +24047,11 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -24942,7 +24084,11 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -24975,7 +24121,11 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -25008,7 +24158,11 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -25041,7 +24195,11 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -25074,7 +24232,11 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -25107,7 +24269,11 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -25140,7 +24306,11 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -25173,7 +24343,11 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -25206,7 +24380,11 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -25239,7 +24417,11 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -25272,7 +24454,11 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -25305,7 +24491,11 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -25338,7 +24528,11 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -25371,7 +24565,11 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -25404,7 +24602,11 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -25437,7 +24639,11 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -25470,7 +24676,11 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -25503,7 +24713,11 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -25536,7 +24750,11 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -25569,7 +24787,11 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -25602,7 +24824,11 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -25635,7 +24861,11 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -25668,7 +24898,11 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -25701,7 +24935,11 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -25734,7 +24972,11 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -25767,7 +25009,11 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -25800,7 +25046,11 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -25833,7 +25083,11 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -25866,7 +25120,11 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -25899,7 +25157,11 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -25932,7 +25194,11 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -25965,7 +25231,11 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -25998,7 +25268,11 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -26031,7 +25305,11 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -26064,7 +25342,11 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -26097,7 +25379,11 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -26130,7 +25416,11 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -26163,7 +25453,11 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -26196,7 +25490,11 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -26229,7 +25527,11 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -26262,7 +25564,11 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -26295,7 +25601,11 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -26328,7 +25638,11 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -26357,11 +25671,15 @@
         <v>-16423848.47924743</v>
       </c>
       <c r="H706" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -26390,11 +25708,15 @@
         <v>-17042105.67014743</v>
       </c>
       <c r="H707" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -26423,11 +25745,15 @@
         <v>-17547436.17934743</v>
       </c>
       <c r="H708" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -26456,11 +25782,15 @@
         <v>-17547436.17934743</v>
       </c>
       <c r="H709" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -26489,11 +25819,15 @@
         <v>-17149832.81214743</v>
       </c>
       <c r="H710" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -26522,11 +25856,15 @@
         <v>-17153612.88464743</v>
       </c>
       <c r="H711" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -26559,7 +25897,11 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -26592,7 +25934,11 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -26621,11 +25967,15 @@
         <v>-17612255.59024743</v>
       </c>
       <c r="H714" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -26654,11 +26004,15 @@
         <v>-18422049.55014743</v>
       </c>
       <c r="H715" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -26687,11 +26041,15 @@
         <v>-18684537.95564743</v>
       </c>
       <c r="H716" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -26720,11 +26078,15 @@
         <v>-19145612.19264743</v>
       </c>
       <c r="H717" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -26753,11 +26115,15 @@
         <v>-19145612.19264743</v>
       </c>
       <c r="H718" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -26786,11 +26152,15 @@
         <v>-18782754.00854743</v>
       </c>
       <c r="H719" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -26823,7 +26193,11 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -26856,7 +26230,11 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -26889,7 +26267,11 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -26922,7 +26304,11 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -26955,7 +26341,11 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -26988,7 +26378,11 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -27021,7 +26415,11 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -27054,7 +26452,11 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -27083,14 +26485,16 @@
         <v>-17377492.50964743</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
-      <c r="L728" t="n">
-        <v>1</v>
-      </c>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L728" t="inlineStr"/>
       <c r="M728" t="inlineStr"/>
     </row>
     <row r="729">
@@ -27116,7 +26520,7 @@
         <v>-17377492.50964743</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -27149,7 +26553,7 @@
         <v>-18052498.03754743</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -27182,7 +26586,7 @@
         <v>-17840614.18444743</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -27215,7 +26619,7 @@
         <v>-18353912.55344743</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -27248,7 +26652,7 @@
         <v>-18353912.55344743</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -27281,7 +26685,7 @@
         <v>-17858847.86474742</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -27314,7 +26718,7 @@
         <v>-17919976.45684742</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -27347,7 +26751,7 @@
         <v>-17919273.61454742</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -27380,7 +26784,7 @@
         <v>-17161125.47488296</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -27446,7 +26850,7 @@
         <v>-17567140.73621851</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -27479,7 +26883,7 @@
         <v>-16846341.39051851</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -27512,7 +26916,7 @@
         <v>-16847513.90300296</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -27545,7 +26949,7 @@
         <v>-16079644.71520296</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -27578,7 +26982,7 @@
         <v>-17275953.67440296</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -27611,7 +27015,7 @@
         <v>-17275953.67440296</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -27644,7 +27048,7 @@
         <v>-17288263.92690296</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -27677,7 +27081,7 @@
         <v>-16561816.01840296</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -27710,7 +27114,7 @@
         <v>-16601816.01840296</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -27743,7 +27147,7 @@
         <v>-16601816.01840296</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -27776,7 +27180,7 @@
         <v>-16606635.98670296</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -27809,7 +27213,7 @@
         <v>-16543934.75140296</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -27842,7 +27246,7 @@
         <v>-16089718.63890296</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -27875,7 +27279,7 @@
         <v>-16402123.00520296</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -27908,7 +27312,7 @@
         <v>-16402123.00520296</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -27941,7 +27345,7 @@
         <v>-16256768.56940296</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -27974,7 +27378,7 @@
         <v>-15125171.99078741</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -28007,7 +27411,7 @@
         <v>-15125171.99078741</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -28040,7 +27444,7 @@
         <v>-13450979.79647185</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -28073,7 +27477,7 @@
         <v>-13450979.79647185</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -28084,6 +27488,6 @@
       <c r="M758" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest XSR.xlsx
+++ b/BackTest/2020-01-25 BackTest XSR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-10939300.5969</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-10939300.5969</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-11091218.0357</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-11954584.2924</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-12030579.1341</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-12665503.6971</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-14362481.2132</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-16014106.789</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-16014106.789</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-16934332.5982</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-17278036.7688</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-17278036.7688</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-18387576.5582</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-18620462.3955</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-17518504.35506696</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-16998117.84236696</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-16976829.36826696</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-17574721.42346696</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-18168253.26646696</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-18163253.26646696</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-18163133.26646696</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-19013216.20056695</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-19647408.41966695</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-19998958.43966695</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-20668563.15216695</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-20881545.57456695</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-20507472.75006695</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-20509478.79316695</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-21090048.27586695</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-21578106.23846695</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -8371,17 +8371,11 @@
         <v>-31036242.67620445</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>4.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8410,17 +8404,11 @@
         <v>-30491559.56460445</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>4.491</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8449,17 +8437,11 @@
         <v>-30491559.56460445</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>4.495</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8488,17 +8470,11 @@
         <v>-30491559.56460445</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>4.495</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8527,17 +8503,11 @@
         <v>-30491559.56460445</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>4.495</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8566,17 +8536,11 @@
         <v>-30491559.56460445</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>4.495</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8605,17 +8569,11 @@
         <v>-31420321.35970445</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>4.495</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8649,12 +8607,10 @@
       <c r="I249" t="n">
         <v>4.488</v>
       </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="n">
+        <v>4.488</v>
+      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8688,10 +8644,12 @@
       <c r="I250" t="n">
         <v>4.488</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L250" t="n">
@@ -8727,7 +8685,9 @@
       <c r="I251" t="n">
         <v>4.488</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8761,12 +8721,12 @@
         <v>-31420321.35970445</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>4.488</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8805,7 +8765,9 @@
       <c r="I253" t="n">
         <v>4.488</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8844,7 +8806,9 @@
       <c r="I254" t="n">
         <v>4.567</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8878,10 +8842,14 @@
         <v>-31819645.15170446</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>4.567</v>
+      </c>
+      <c r="J255" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8920,7 +8888,9 @@
       <c r="I256" t="n">
         <v>4.515</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8959,7 +8929,9 @@
       <c r="I257" t="n">
         <v>4.52</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8993,12 +8965,12 @@
         <v>-32298744.72780446</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>4.501</v>
-      </c>
-      <c r="J258" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9032,12 +9004,12 @@
         <v>-32304572.98780446</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>4.513</v>
-      </c>
-      <c r="J259" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9076,7 +9048,9 @@
       <c r="I260" t="n">
         <v>4.51</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9115,7 +9089,9 @@
       <c r="I261" t="n">
         <v>4.503</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9152,7 +9128,9 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9189,7 +9167,9 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9226,7 +9206,9 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9260,12 +9242,12 @@
         <v>-31711469.62110446</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>4.501</v>
-      </c>
-      <c r="J265" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9302,7 +9284,9 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9336,12 +9320,12 @@
         <v>-31220935.43660446</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>4.502</v>
-      </c>
-      <c r="J267" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9378,7 +9362,9 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9412,12 +9398,12 @@
         <v>-31145492.29870446</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>4.504</v>
-      </c>
-      <c r="J269" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9454,7 +9440,9 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9488,12 +9476,12 @@
         <v>-31135492.29870446</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>4.504</v>
-      </c>
-      <c r="J271" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9527,12 +9515,12 @@
         <v>-31784127.89770446</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>4.509</v>
-      </c>
-      <c r="J272" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9571,7 +9559,9 @@
       <c r="I273" t="n">
         <v>4.503</v>
       </c>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9610,7 +9600,9 @@
       <c r="I274" t="n">
         <v>4.502</v>
       </c>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9649,7 +9641,9 @@
       <c r="I275" t="n">
         <v>4.502</v>
       </c>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9683,12 +9677,12 @@
         <v>-32420499.47660445</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>4.517</v>
-      </c>
-      <c r="J276" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9725,7 +9719,9 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9762,7 +9758,9 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9801,7 +9799,9 @@
       <c r="I279" t="n">
         <v>4.48</v>
       </c>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9838,7 +9838,9 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9875,7 +9877,9 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9912,7 +9916,9 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9949,7 +9955,9 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9986,7 +9994,9 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10023,7 +10033,9 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10060,7 +10072,9 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10097,7 +10111,9 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10134,7 +10150,9 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10171,7 +10189,9 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10208,7 +10228,9 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10245,7 +10267,9 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10282,7 +10306,9 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10319,7 +10345,9 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10356,7 +10384,9 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10393,7 +10423,9 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10430,7 +10462,9 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10467,7 +10501,9 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10504,7 +10540,9 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10541,7 +10579,9 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10578,7 +10618,9 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10615,7 +10657,9 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10652,7 +10696,9 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10689,7 +10735,9 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10726,7 +10774,9 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10763,7 +10813,9 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10800,7 +10852,9 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10837,7 +10891,9 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10874,7 +10930,9 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10911,7 +10969,9 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10948,7 +11008,9 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10985,7 +11047,9 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11022,7 +11086,9 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11059,7 +11125,9 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11096,7 +11164,9 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11133,7 +11203,9 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11170,7 +11242,9 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11207,7 +11281,9 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11244,7 +11320,9 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11281,7 +11359,9 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11318,7 +11398,9 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11355,7 +11437,9 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11392,7 +11476,9 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11429,7 +11515,9 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11466,7 +11554,9 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11503,7 +11593,9 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11540,7 +11632,9 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11577,7 +11671,9 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11614,7 +11710,9 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11651,7 +11749,9 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11688,7 +11788,9 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11725,7 +11827,9 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11762,7 +11866,9 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11796,12 +11902,12 @@
         <v>-26403033.10690445</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
-      </c>
-      <c r="I333" t="n">
-        <v>4.616</v>
-      </c>
-      <c r="J333" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11838,7 +11944,9 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11872,12 +11980,12 @@
         <v>-26797988.42360445</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I335" t="n">
-        <v>4.622</v>
-      </c>
-      <c r="J335" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11914,7 +12022,9 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11948,12 +12058,12 @@
         <v>-26761911.51710445</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>4.629</v>
-      </c>
-      <c r="J337" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11990,7 +12100,9 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12024,12 +12136,12 @@
         <v>-27770283.77450445</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I339" t="n">
-        <v>4.621</v>
-      </c>
-      <c r="J339" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12063,12 +12175,12 @@
         <v>-27848676.56060445</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
-      </c>
-      <c r="I340" t="n">
-        <v>4.619</v>
-      </c>
-      <c r="J340" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12102,12 +12214,12 @@
         <v>-27139312.86640444</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
-      </c>
-      <c r="I341" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J341" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12141,12 +12253,12 @@
         <v>-27799598.77840444</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
-      </c>
-      <c r="I342" t="n">
-        <v>4.609</v>
-      </c>
-      <c r="J342" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12180,12 +12292,12 @@
         <v>-27385630.20550444</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
-      </c>
-      <c r="I343" t="n">
-        <v>4.597</v>
-      </c>
-      <c r="J343" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12219,12 +12331,12 @@
         <v>-27012517.34480444</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
-      </c>
-      <c r="I344" t="n">
-        <v>4.601</v>
-      </c>
-      <c r="J344" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12258,12 +12370,12 @@
         <v>-27012517.34480444</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
-      </c>
-      <c r="I345" t="n">
-        <v>4.604</v>
-      </c>
-      <c r="J345" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12297,12 +12409,12 @@
         <v>-26599247.77470445</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
-      </c>
-      <c r="I346" t="n">
-        <v>4.604</v>
-      </c>
-      <c r="J346" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12336,12 +12448,12 @@
         <v>-26700529.87340445</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
-      </c>
-      <c r="I347" t="n">
-        <v>4.605</v>
-      </c>
-      <c r="J347" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12375,12 +12487,12 @@
         <v>-26184063.08470445</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
-      </c>
-      <c r="I348" t="n">
-        <v>4.604</v>
-      </c>
-      <c r="J348" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12414,12 +12526,12 @@
         <v>-26170687.71640445</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
-      </c>
-      <c r="I349" t="n">
-        <v>4.609</v>
-      </c>
-      <c r="J349" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12453,12 +12565,12 @@
         <v>-25369754.85390445</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
-      </c>
-      <c r="I350" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="J350" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12492,12 +12604,12 @@
         <v>-25369754.85390445</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
-      </c>
-      <c r="I351" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="J351" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12531,12 +12643,12 @@
         <v>-25369646.60140445</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
-      </c>
-      <c r="I352" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="J352" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12573,7 +12685,9 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12610,7 +12724,9 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12644,12 +12760,12 @@
         <v>-26095354.64400445</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
-      </c>
-      <c r="I355" t="n">
-        <v>4.615</v>
-      </c>
-      <c r="J355" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12683,12 +12799,12 @@
         <v>-26552382.34170445</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
-      </c>
-      <c r="I356" t="n">
-        <v>4.615</v>
-      </c>
-      <c r="J356" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12725,7 +12841,9 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12759,12 +12877,12 @@
         <v>-26592726.12800445</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
-      </c>
-      <c r="I358" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="J358" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12801,7 +12919,9 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12835,12 +12955,12 @@
         <v>-26240630.20510445</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
-      </c>
-      <c r="I360" t="n">
-        <v>4.611</v>
-      </c>
-      <c r="J360" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12874,12 +12994,12 @@
         <v>-26312929.69820445</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
-      </c>
-      <c r="I361" t="n">
-        <v>4.612</v>
-      </c>
-      <c r="J361" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12916,7 +13036,9 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12953,7 +13075,9 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12987,12 +13111,12 @@
         <v>-27614495.21420445</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" t="n">
-        <v>4.571</v>
-      </c>
-      <c r="J364" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13029,7 +13153,9 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13063,12 +13189,12 @@
         <v>-27104836.69430444</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
-      </c>
-      <c r="I366" t="n">
-        <v>4.563</v>
-      </c>
-      <c r="J366" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13102,12 +13228,12 @@
         <v>-26251004.64010444</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
-      </c>
-      <c r="I367" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="J367" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13141,12 +13267,12 @@
         <v>-26650546.83630444</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
-      </c>
-      <c r="I368" t="n">
-        <v>4.562</v>
-      </c>
-      <c r="J368" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13180,12 +13306,12 @@
         <v>-26665116.06570444</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
-      </c>
-      <c r="I369" t="n">
-        <v>4.561</v>
-      </c>
-      <c r="J369" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13219,12 +13345,12 @@
         <v>-27501796.97790444</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
-      </c>
-      <c r="I370" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="J370" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13261,7 +13387,9 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13295,12 +13423,12 @@
         <v>-27253036.08750444</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
-      </c>
-      <c r="I372" t="n">
-        <v>4.511</v>
-      </c>
-      <c r="J372" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13334,12 +13462,12 @@
         <v>-26739851.34920444</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
-      </c>
-      <c r="I373" t="n">
-        <v>4.522</v>
-      </c>
-      <c r="J373" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13373,12 +13501,12 @@
         <v>-27502418.59550444</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
-      </c>
-      <c r="I374" t="n">
-        <v>4.526</v>
-      </c>
-      <c r="J374" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13412,12 +13540,12 @@
         <v>-28308190.63690444</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
-      </c>
-      <c r="I375" t="n">
-        <v>4.524</v>
-      </c>
-      <c r="J375" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13451,12 +13579,12 @@
         <v>-27551085.08250444</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
-      </c>
-      <c r="I376" t="n">
-        <v>4.512</v>
-      </c>
-      <c r="J376" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13490,12 +13618,12 @@
         <v>-28059477.09730444</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
-      </c>
-      <c r="I377" t="n">
-        <v>4.517</v>
-      </c>
-      <c r="J377" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13529,12 +13657,12 @@
         <v>-28059698.46450444</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
-      </c>
-      <c r="I378" t="n">
-        <v>4.515</v>
-      </c>
-      <c r="J378" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13568,12 +13696,12 @@
         <v>-27391487.53130444</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
-      </c>
-      <c r="I379" t="n">
-        <v>4.514</v>
-      </c>
-      <c r="J379" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13607,12 +13735,12 @@
         <v>-26638785.08480444</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
-      </c>
-      <c r="I380" t="n">
-        <v>4.516</v>
-      </c>
-      <c r="J380" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13649,7 +13777,9 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13686,7 +13816,9 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13723,7 +13855,9 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13760,7 +13894,9 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13797,7 +13933,9 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13834,7 +13972,9 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13871,7 +14011,9 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13908,7 +14050,9 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13945,7 +14089,9 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13982,7 +14128,9 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14019,7 +14167,9 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14056,7 +14206,9 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14093,7 +14245,9 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14130,7 +14284,9 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14167,7 +14323,9 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14204,7 +14362,9 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14241,7 +14401,9 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14278,7 +14440,9 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14315,7 +14479,9 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14352,7 +14518,9 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14389,7 +14557,9 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14426,7 +14596,9 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14463,7 +14635,9 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14500,7 +14674,9 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14537,7 +14713,9 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14574,7 +14752,9 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14611,7 +14791,9 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14648,7 +14830,9 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14685,7 +14869,9 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14722,7 +14908,9 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14759,7 +14947,9 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14796,7 +14986,9 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14833,7 +15025,9 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14870,7 +15064,9 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14907,7 +15103,9 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14944,7 +15142,9 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14981,7 +15181,9 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15018,7 +15220,9 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15055,7 +15259,9 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15092,7 +15298,9 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15129,7 +15337,9 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15166,7 +15376,9 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15203,7 +15415,9 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15240,7 +15454,9 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15277,7 +15493,9 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15314,7 +15532,9 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15351,7 +15571,9 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15388,7 +15610,9 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15425,7 +15649,9 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15462,7 +15688,9 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15499,7 +15727,9 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15536,7 +15766,9 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15573,7 +15805,9 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15610,7 +15844,9 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15647,7 +15883,9 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15684,7 +15922,9 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15721,7 +15961,9 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15758,7 +16000,9 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15795,7 +16039,9 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15832,7 +16078,9 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15869,7 +16117,9 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15906,7 +16156,9 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15943,7 +16195,9 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15980,7 +16234,9 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16017,7 +16273,9 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16054,7 +16312,9 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16091,7 +16351,9 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16128,7 +16390,9 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16165,7 +16429,9 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16202,7 +16468,9 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16239,7 +16507,9 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16276,7 +16546,9 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16313,7 +16585,9 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16350,7 +16624,9 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16387,7 +16663,9 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16424,7 +16702,9 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16461,7 +16741,9 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16498,7 +16780,9 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16535,7 +16819,9 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16572,7 +16858,9 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16609,7 +16897,9 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16646,7 +16936,9 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16683,7 +16975,9 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16720,7 +17014,9 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16757,7 +17053,9 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16794,7 +17092,9 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16831,7 +17131,9 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16868,7 +17170,9 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16905,7 +17209,9 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16942,7 +17248,9 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16979,7 +17287,9 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17016,7 +17326,9 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17053,7 +17365,9 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17090,7 +17404,9 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17127,7 +17443,9 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17164,7 +17482,9 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17201,7 +17521,9 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17238,7 +17560,9 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17275,7 +17599,9 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17312,7 +17638,9 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17349,7 +17677,9 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17386,7 +17716,9 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17423,7 +17755,9 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17460,7 +17794,9 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17497,7 +17833,9 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17534,7 +17872,9 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17571,7 +17911,9 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17608,7 +17950,9 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17645,7 +17989,9 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17682,7 +18028,9 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17719,7 +18067,9 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17756,7 +18106,9 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17793,7 +18145,9 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17830,7 +18184,9 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17867,7 +18223,9 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17904,7 +18262,9 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17941,7 +18301,9 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17978,7 +18340,9 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18015,7 +18379,9 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18052,7 +18418,9 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18089,7 +18457,9 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18126,7 +18496,9 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18163,7 +18535,9 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18200,7 +18574,9 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18237,7 +18613,9 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18274,7 +18652,9 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18311,7 +18691,9 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18348,7 +18730,9 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18385,7 +18769,9 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18422,7 +18808,9 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18459,7 +18847,9 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18496,7 +18886,9 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18533,7 +18925,9 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18570,7 +18964,9 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18607,7 +19003,9 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18644,7 +19042,9 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18681,7 +19081,9 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18718,7 +19120,9 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18755,7 +19159,9 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18792,7 +19198,9 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18829,7 +19237,9 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18866,7 +19276,9 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18903,7 +19315,9 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18940,7 +19354,9 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18977,7 +19393,9 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19014,7 +19432,9 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19051,7 +19471,9 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19088,7 +19510,9 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19125,7 +19549,9 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19162,7 +19588,9 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19199,7 +19627,9 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19236,7 +19666,9 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19273,7 +19705,9 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19310,7 +19744,9 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19347,7 +19783,9 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19384,7 +19822,9 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19421,7 +19861,9 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19458,7 +19900,9 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19495,7 +19939,9 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19532,7 +19978,9 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19569,7 +20017,9 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19606,7 +20056,9 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19643,7 +20095,9 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19680,7 +20134,9 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19717,7 +20173,9 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19754,7 +20212,9 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19791,7 +20251,9 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19828,7 +20290,9 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19865,7 +20329,9 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19902,7 +20368,9 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19939,7 +20407,9 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19976,7 +20446,9 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20013,7 +20485,9 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20050,7 +20524,9 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20087,7 +20563,9 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20124,7 +20602,9 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20161,7 +20641,9 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20198,7 +20680,9 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20235,7 +20719,9 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20272,7 +20758,9 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20309,7 +20797,9 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20346,7 +20836,9 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20383,7 +20875,9 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20420,7 +20914,9 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20457,7 +20953,9 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20494,7 +20992,9 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20531,7 +21031,9 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20568,7 +21070,9 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20605,7 +21109,9 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20642,7 +21148,9 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20679,7 +21187,9 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20716,7 +21226,9 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20753,7 +21265,9 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20790,7 +21304,9 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20827,7 +21343,9 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20864,7 +21382,9 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20901,7 +21421,9 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20938,7 +21460,9 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20975,7 +21499,9 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21012,7 +21538,9 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21049,7 +21577,9 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21086,7 +21616,9 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21123,7 +21655,9 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21160,7 +21694,9 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21197,7 +21733,9 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21234,7 +21772,9 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21271,7 +21811,9 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21308,7 +21850,9 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21345,7 +21889,9 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21382,7 +21928,9 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21419,7 +21967,9 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21456,7 +22006,9 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21493,7 +22045,9 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21530,7 +22084,9 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21567,7 +22123,9 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21604,7 +22162,9 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21641,7 +22201,9 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21678,7 +22240,9 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21715,7 +22279,9 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21752,7 +22318,9 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21789,7 +22357,9 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21826,7 +22396,9 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21863,7 +22435,9 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21900,7 +22474,9 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21937,7 +22513,9 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21974,7 +22552,9 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22011,7 +22591,9 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22048,7 +22630,9 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22085,7 +22669,9 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22122,7 +22708,9 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22159,7 +22747,9 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22196,7 +22786,9 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22233,7 +22825,9 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22270,7 +22864,9 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22307,7 +22903,9 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22344,7 +22942,9 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22381,7 +22981,9 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22418,7 +23020,9 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22455,7 +23059,9 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22492,7 +23098,9 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22529,7 +23137,9 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22566,7 +23176,9 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22603,7 +23215,9 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22640,7 +23254,9 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22677,7 +23293,9 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22714,7 +23332,9 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22751,7 +23371,9 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22788,7 +23410,9 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22825,7 +23449,9 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22862,7 +23488,9 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22899,7 +23527,9 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22936,7 +23566,9 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22973,7 +23605,9 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23010,7 +23644,9 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23047,7 +23683,9 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23084,7 +23722,9 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23121,7 +23761,9 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23158,7 +23800,9 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23195,7 +23839,9 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23232,7 +23878,9 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23269,7 +23917,9 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23306,7 +23956,9 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23343,7 +23995,9 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23380,7 +24034,9 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23417,7 +24073,9 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23454,7 +24112,9 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23491,7 +24151,9 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23528,7 +24190,9 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23565,7 +24229,9 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23602,7 +24268,9 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23639,7 +24307,9 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23676,7 +24346,9 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23713,7 +24385,9 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23750,7 +24424,9 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23787,7 +24463,9 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23824,7 +24502,9 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23861,7 +24541,9 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23898,7 +24580,9 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23935,7 +24619,9 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23972,7 +24658,9 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24009,7 +24697,9 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24046,7 +24736,9 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24083,7 +24775,9 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24120,7 +24814,9 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24157,7 +24853,9 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24194,7 +24892,9 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24228,17 +24928,19 @@
         <v>-23911692.78999557</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>4.488</v>
+      </c>
       <c r="K667" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L667" t="n">
-        <v>1</v>
+        <v>1.026417112299465</v>
       </c>
       <c r="M667" t="inlineStr"/>
     </row>
@@ -24265,15 +24967,11 @@
         <v>-24236929.79119557</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -24302,15 +25000,11 @@
         <v>-24175409.30459557</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -24339,15 +25033,11 @@
         <v>-24175111.20759557</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -24376,15 +25066,11 @@
         <v>-24175111.20759557</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -24417,11 +25103,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -24454,11 +25136,7 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -24491,11 +25169,7 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -24528,11 +25202,7 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -24565,11 +25235,7 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -24602,11 +25268,7 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -24639,11 +25301,7 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -24676,11 +25334,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -24713,11 +25367,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -24750,11 +25400,7 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -24787,11 +25433,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -24824,11 +25466,7 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -24861,11 +25499,7 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -24898,11 +25532,7 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -24935,11 +25565,7 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -24972,11 +25598,7 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -25009,11 +25631,7 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -25046,11 +25664,7 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -25083,11 +25697,7 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -25120,11 +25730,7 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -25157,11 +25763,7 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -25194,11 +25796,7 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -25231,11 +25829,7 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -25268,11 +25862,7 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -25305,11 +25895,7 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -25342,11 +25928,7 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -25379,11 +25961,7 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -25416,11 +25994,7 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -25453,11 +26027,7 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -25490,11 +26060,7 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -25527,11 +26093,7 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -25564,11 +26126,7 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -25601,11 +26159,7 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -25638,11 +26192,7 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -25675,11 +26225,7 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -25712,11 +26258,7 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -25749,11 +26291,7 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -25786,11 +26324,7 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -25823,11 +26357,7 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -25860,11 +26390,7 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -25897,11 +26423,7 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -25934,11 +26456,7 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -25971,11 +26489,7 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -26008,11 +26522,7 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -26045,11 +26555,7 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -26082,11 +26588,7 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -26119,11 +26621,7 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K718" t="inlineStr"/>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -26156,11 +26654,7 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K719" t="inlineStr"/>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -26193,11 +26687,7 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K720" t="inlineStr"/>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -26230,11 +26720,7 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K721" t="inlineStr"/>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -26267,11 +26753,7 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K722" t="inlineStr"/>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -26304,11 +26786,7 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K723" t="inlineStr"/>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -26341,11 +26819,7 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K724" t="inlineStr"/>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -26378,11 +26852,7 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -26415,11 +26885,7 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -26452,11 +26918,7 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K727" t="inlineStr"/>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -26485,16 +26947,14 @@
         <v>-17377492.50964743</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L728" t="inlineStr"/>
+      <c r="K728" t="inlineStr"/>
+      <c r="L728" t="n">
+        <v>1</v>
+      </c>
       <c r="M728" t="inlineStr"/>
     </row>
     <row r="729">
@@ -26520,7 +26980,7 @@
         <v>-17377492.50964743</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -26553,7 +27013,7 @@
         <v>-18052498.03754743</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -26586,7 +27046,7 @@
         <v>-17840614.18444743</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -26619,7 +27079,7 @@
         <v>-18353912.55344743</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -26652,7 +27112,7 @@
         <v>-18353912.55344743</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -26685,7 +27145,7 @@
         <v>-17858847.86474742</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -26718,7 +27178,7 @@
         <v>-17919976.45684742</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -26751,7 +27211,7 @@
         <v>-17919273.61454742</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -26784,7 +27244,7 @@
         <v>-17161125.47488296</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -26850,7 +27310,7 @@
         <v>-17567140.73621851</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -26883,7 +27343,7 @@
         <v>-16846341.39051851</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -26916,7 +27376,7 @@
         <v>-16847513.90300296</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -26949,7 +27409,7 @@
         <v>-16079644.71520296</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -26982,7 +27442,7 @@
         <v>-17275953.67440296</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -27015,7 +27475,7 @@
         <v>-17275953.67440296</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -27048,7 +27508,7 @@
         <v>-17288263.92690296</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -27081,7 +27541,7 @@
         <v>-16561816.01840296</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -27114,7 +27574,7 @@
         <v>-16601816.01840296</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -27147,7 +27607,7 @@
         <v>-16601816.01840296</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -27180,7 +27640,7 @@
         <v>-16606635.98670296</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -27213,7 +27673,7 @@
         <v>-16543934.75140296</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -27246,7 +27706,7 @@
         <v>-16089718.63890296</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -27279,7 +27739,7 @@
         <v>-16402123.00520296</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -27312,7 +27772,7 @@
         <v>-16402123.00520296</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -27345,7 +27805,7 @@
         <v>-16256768.56940296</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -27378,7 +27838,7 @@
         <v>-15125171.99078741</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -27411,7 +27871,7 @@
         <v>-15125171.99078741</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -27444,7 +27904,7 @@
         <v>-13450979.79647185</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -27477,7 +27937,7 @@
         <v>-13450979.79647185</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -27488,6 +27948,6 @@
       <c r="M758" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest XSR.xlsx
+++ b/BackTest/2020-01-25 BackTest XSR.xlsx
@@ -2464,7 +2464,7 @@
         <v>-17518504.35506696</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-16998117.84236696</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-16976829.36826696</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-17574721.42346696</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-18168253.26646696</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-18163253.26646696</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-18163133.26646696</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-19013216.20056695</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-19647408.41966695</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-19998958.43966695</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-20668563.15216695</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-20881545.57456695</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-20507472.75006695</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-20509478.79316695</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-21090048.27586695</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-21578106.23846695</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -8140,10 +8140,14 @@
         <v>-28870548.93350445</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J235" t="n">
+        <v>4.6</v>
+      </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
@@ -8176,8 +8180,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8209,8 +8219,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8242,8 +8258,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8272,11 +8294,19 @@
         <v>-30589809.25990446</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>4.597</v>
+      </c>
+      <c r="J239" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8305,11 +8335,19 @@
         <v>-30573078.91730446</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>4.564</v>
+      </c>
+      <c r="J240" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8338,11 +8376,19 @@
         <v>-30686126.33780446</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>4.593</v>
+      </c>
+      <c r="J241" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8371,11 +8417,19 @@
         <v>-31036242.67620445</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J242" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8404,11 +8458,19 @@
         <v>-30491559.56460445</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>4.491</v>
+      </c>
+      <c r="J243" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8437,11 +8499,19 @@
         <v>-30491559.56460445</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>4.495</v>
+      </c>
+      <c r="J244" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8470,11 +8540,19 @@
         <v>-30491559.56460445</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>4.495</v>
+      </c>
+      <c r="J245" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8503,11 +8581,19 @@
         <v>-30491559.56460445</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>4.495</v>
+      </c>
+      <c r="J246" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8536,11 +8622,19 @@
         <v>-30491559.56460445</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>4.495</v>
+      </c>
+      <c r="J247" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8569,11 +8663,19 @@
         <v>-31420321.35970445</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>4.495</v>
+      </c>
+      <c r="J248" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8608,9 +8710,13 @@
         <v>4.488</v>
       </c>
       <c r="J249" t="n">
-        <v>4.488</v>
-      </c>
-      <c r="K249" t="inlineStr"/>
+        <v>4.6</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8645,11 +8751,11 @@
         <v>4.488</v>
       </c>
       <c r="J250" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L250" t="n">
@@ -8686,7 +8792,7 @@
         <v>4.488</v>
       </c>
       <c r="J251" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -8721,11 +8827,13 @@
         <v>-31420321.35970445</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>4.488</v>
+      </c>
       <c r="J252" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -8766,7 +8874,7 @@
         <v>4.488</v>
       </c>
       <c r="J253" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -8801,13 +8909,11 @@
         <v>-31002525.37190446</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>4.567</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -8842,13 +8948,11 @@
         <v>-31819645.15170446</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>4.567</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -8883,13 +8987,11 @@
         <v>-31818645.15170446</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>4.515</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -8930,7 +9032,7 @@
         <v>4.52</v>
       </c>
       <c r="J257" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -8969,7 +9071,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -9008,7 +9110,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -9049,7 +9151,7 @@
         <v>4.51</v>
       </c>
       <c r="J260" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -9084,13 +9186,11 @@
         <v>-32687656.65220446</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>4.503</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -9129,7 +9229,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -9168,7 +9268,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -9207,7 +9307,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -9242,11 +9342,13 @@
         <v>-31711469.62110446</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>4.501</v>
+      </c>
       <c r="J265" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -9281,11 +9383,13 @@
         <v>-31711469.62110446</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>4.502</v>
+      </c>
       <c r="J266" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -9320,11 +9424,13 @@
         <v>-31220935.43660446</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>4.502</v>
+      </c>
       <c r="J267" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -9359,11 +9465,13 @@
         <v>-31145492.29870446</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>4.503</v>
+      </c>
       <c r="J268" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -9398,11 +9506,13 @@
         <v>-31145492.29870446</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>4.504</v>
+      </c>
       <c r="J269" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -9437,11 +9547,13 @@
         <v>-31145492.29870446</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>4.504</v>
+      </c>
       <c r="J270" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -9476,11 +9588,13 @@
         <v>-31135492.29870446</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>4.504</v>
+      </c>
       <c r="J271" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -9515,11 +9629,13 @@
         <v>-31784127.89770446</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>4.509</v>
+      </c>
       <c r="J272" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -9560,7 +9676,7 @@
         <v>4.503</v>
       </c>
       <c r="J273" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -9601,7 +9717,7 @@
         <v>4.502</v>
       </c>
       <c r="J274" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -9642,7 +9758,7 @@
         <v>4.502</v>
       </c>
       <c r="J275" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -9677,11 +9793,13 @@
         <v>-32420499.47660445</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>4.517</v>
+      </c>
       <c r="J276" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -9716,11 +9834,13 @@
         <v>-31508841.23360445</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>4.498</v>
+      </c>
       <c r="J277" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -9755,11 +9875,13 @@
         <v>-31518401.51730445</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>4.501</v>
+      </c>
       <c r="J278" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -9800,7 +9922,7 @@
         <v>4.48</v>
       </c>
       <c r="J279" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -9835,11 +9957,13 @@
         <v>-30666418.20940445</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>4.494</v>
+      </c>
       <c r="J280" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -9874,11 +9998,13 @@
         <v>-29909173.95020445</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>4.501</v>
+      </c>
       <c r="J281" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -9913,11 +10039,13 @@
         <v>-29908954.84340445</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>4.51</v>
+      </c>
       <c r="J282" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -9956,7 +10084,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -9991,11 +10119,13 @@
         <v>-30740514.21520445</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>4.51</v>
+      </c>
       <c r="J284" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -10034,7 +10164,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -10069,11 +10199,13 @@
         <v>-31246814.28610445</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>4.501</v>
+      </c>
       <c r="J286" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -10108,11 +10240,13 @@
         <v>-30852329.45770445</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>4.504</v>
+      </c>
       <c r="J287" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -10147,11 +10281,13 @@
         <v>-31440500.09310445</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>4.51</v>
+      </c>
       <c r="J288" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -10190,7 +10326,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10225,11 +10361,13 @@
         <v>-31091342.67450445</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>4.504</v>
+      </c>
       <c r="J290" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10264,11 +10402,13 @@
         <v>-30694220.52120445</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>4.506</v>
+      </c>
       <c r="J291" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10303,11 +10443,13 @@
         <v>-30694220.52120445</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>4.508</v>
+      </c>
       <c r="J292" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -10342,11 +10484,13 @@
         <v>-30694109.79610445</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>4.508</v>
+      </c>
       <c r="J293" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -10381,11 +10525,13 @@
         <v>-31312359.27820445</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>4.517</v>
+      </c>
       <c r="J294" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -10420,11 +10566,13 @@
         <v>-30556347.92000445</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>4.508</v>
+      </c>
       <c r="J295" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -10459,11 +10607,13 @@
         <v>-30266812.52290445</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>4.509</v>
+      </c>
       <c r="J296" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -10498,11 +10648,13 @@
         <v>-30266573.39690445</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>4.512</v>
+      </c>
       <c r="J297" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -10537,11 +10689,13 @@
         <v>-31261608.73000445</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>4.513</v>
+      </c>
       <c r="J298" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -10576,11 +10730,13 @@
         <v>-30954889.34710445</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>4.509</v>
+      </c>
       <c r="J299" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -10615,11 +10771,13 @@
         <v>-30954889.34710445</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>4.527</v>
+      </c>
       <c r="J300" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -10654,11 +10812,13 @@
         <v>-31321273.73060445</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>4.527</v>
+      </c>
       <c r="J301" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -10693,11 +10853,13 @@
         <v>-31003041.46570445</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>4.52</v>
+      </c>
       <c r="J302" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -10732,11 +10894,13 @@
         <v>-31135044.82730445</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>4.553</v>
+      </c>
       <c r="J303" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -10771,11 +10935,13 @@
         <v>-31595919.32770445</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>4.534</v>
+      </c>
       <c r="J304" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -10810,11 +10976,13 @@
         <v>-32205360.30010445</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>4.527</v>
+      </c>
       <c r="J305" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -10849,11 +11017,13 @@
         <v>-31623038.90170445</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>4.524</v>
+      </c>
       <c r="J306" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -10888,11 +11058,13 @@
         <v>-31214426.14470445</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>4.525</v>
+      </c>
       <c r="J307" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -10927,11 +11099,13 @@
         <v>-31269492.54890445</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>4.526</v>
+      </c>
       <c r="J308" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -10966,11 +11140,13 @@
         <v>-31290277.16980445</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>4.525</v>
+      </c>
       <c r="J309" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -11005,11 +11181,13 @@
         <v>-30722900.38710445</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>4.524</v>
+      </c>
       <c r="J310" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -11044,11 +11222,13 @@
         <v>-30704149.84770445</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>4.525</v>
+      </c>
       <c r="J311" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -11083,11 +11263,13 @@
         <v>-30723895.23760445</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>4.534</v>
+      </c>
       <c r="J312" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -11122,11 +11304,13 @@
         <v>-30049018.87870445</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>4.524</v>
+      </c>
       <c r="J313" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -11161,11 +11345,13 @@
         <v>-29540502.74200445</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>4.53</v>
+      </c>
       <c r="J314" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -11200,11 +11386,13 @@
         <v>-29466654.97810445</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>4.534</v>
+      </c>
       <c r="J315" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -11239,11 +11427,13 @@
         <v>-28904064.45260445</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>4.535</v>
+      </c>
       <c r="J316" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -11278,11 +11468,13 @@
         <v>-28685860.08660445</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>4.537</v>
+      </c>
       <c r="J317" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11317,11 +11509,13 @@
         <v>-28685860.08660445</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>4.555</v>
+      </c>
       <c r="J318" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11356,11 +11550,13 @@
         <v>-28685860.08660445</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>4.555</v>
+      </c>
       <c r="J319" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11395,11 +11591,13 @@
         <v>-28685550.08660445</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>4.555</v>
+      </c>
       <c r="J320" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11434,11 +11632,13 @@
         <v>-28684441.46150445</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>4.56</v>
+      </c>
       <c r="J321" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -11473,11 +11673,13 @@
         <v>-29199121.97530445</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>4.565</v>
+      </c>
       <c r="J322" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -11512,11 +11714,13 @@
         <v>-28775637.25830445</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>4.556</v>
+      </c>
       <c r="J323" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -11551,11 +11755,13 @@
         <v>-28481389.01970445</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>4.564</v>
+      </c>
       <c r="J324" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -11590,11 +11796,13 @@
         <v>-28267243.40350445</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>4.565</v>
+      </c>
       <c r="J325" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -11629,11 +11837,13 @@
         <v>-28267243.40350445</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>4.621</v>
+      </c>
       <c r="J326" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -11668,11 +11878,13 @@
         <v>-28267243.40350445</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>4.621</v>
+      </c>
       <c r="J327" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -11707,11 +11919,13 @@
         <v>-27887347.67970445</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>4.621</v>
+      </c>
       <c r="J328" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -11746,11 +11960,13 @@
         <v>-26845655.77720445</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>4.627</v>
+      </c>
       <c r="J329" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -11785,11 +12001,13 @@
         <v>-26097673.30830445</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>4.67</v>
+      </c>
       <c r="J330" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -11824,11 +12042,13 @@
         <v>-26191056.05650445</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>4.68</v>
+      </c>
       <c r="J331" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -11863,11 +12083,13 @@
         <v>-27001478.98580445</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>4.621</v>
+      </c>
       <c r="J332" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -11902,11 +12124,13 @@
         <v>-26403033.10690445</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>4.616</v>
+      </c>
       <c r="J333" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -11941,11 +12165,13 @@
         <v>-26723945.39010445</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>4.628</v>
+      </c>
       <c r="J334" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -11980,11 +12206,13 @@
         <v>-26797988.42360445</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>4.622</v>
+      </c>
       <c r="J335" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -12019,11 +12247,13 @@
         <v>-26761911.51710445</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>4.621</v>
+      </c>
       <c r="J336" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -12058,11 +12288,13 @@
         <v>-26761911.51710445</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>4.629</v>
+      </c>
       <c r="J337" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -12097,11 +12329,13 @@
         <v>-27332868.53400445</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>4.629</v>
+      </c>
       <c r="J338" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -12136,11 +12370,13 @@
         <v>-27770283.77450445</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>4.621</v>
+      </c>
       <c r="J339" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -12175,11 +12411,13 @@
         <v>-27848676.56060445</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>4.619</v>
+      </c>
       <c r="J340" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -12214,11 +12452,13 @@
         <v>-27139312.86640444</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>4.6</v>
+      </c>
       <c r="J341" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -12253,11 +12493,13 @@
         <v>-27799598.77840444</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>4.609</v>
+      </c>
       <c r="J342" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -12292,11 +12534,13 @@
         <v>-27385630.20550444</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>4.597</v>
+      </c>
       <c r="J343" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -12331,11 +12575,13 @@
         <v>-27012517.34480444</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>4.601</v>
+      </c>
       <c r="J344" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -12370,11 +12616,13 @@
         <v>-27012517.34480444</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>4.604</v>
+      </c>
       <c r="J345" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -12409,11 +12657,13 @@
         <v>-26599247.77470445</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>4.604</v>
+      </c>
       <c r="J346" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -12448,11 +12698,13 @@
         <v>-26700529.87340445</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>4.605</v>
+      </c>
       <c r="J347" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -12487,11 +12739,13 @@
         <v>-26184063.08470445</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>4.604</v>
+      </c>
       <c r="J348" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -12526,11 +12780,13 @@
         <v>-26170687.71640445</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>4.609</v>
+      </c>
       <c r="J349" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -12565,11 +12821,13 @@
         <v>-25369754.85390445</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>4.61</v>
+      </c>
       <c r="J350" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -12604,11 +12862,13 @@
         <v>-25369754.85390445</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>4.62</v>
+      </c>
       <c r="J351" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -12643,11 +12903,13 @@
         <v>-25369646.60140445</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>4.62</v>
+      </c>
       <c r="J352" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -12682,11 +12944,13 @@
         <v>-25369646.60140445</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>4.621</v>
+      </c>
       <c r="J353" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -12721,11 +12985,13 @@
         <v>-26095354.64400445</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>4.621</v>
+      </c>
       <c r="J354" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -12760,11 +13026,13 @@
         <v>-26095354.64400445</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>4.615</v>
+      </c>
       <c r="J355" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -12799,11 +13067,13 @@
         <v>-26552382.34170445</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>4.615</v>
+      </c>
       <c r="J356" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -12838,11 +13108,13 @@
         <v>-26128007.20190445</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>4.613</v>
+      </c>
       <c r="J357" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -12877,11 +13149,13 @@
         <v>-26592726.12800445</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>4.62</v>
+      </c>
       <c r="J358" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -12916,11 +13190,13 @@
         <v>-26983389.67750445</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>4.614</v>
+      </c>
       <c r="J359" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -12955,11 +13231,13 @@
         <v>-26240630.20510445</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>4.611</v>
+      </c>
       <c r="J360" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -12994,11 +13272,13 @@
         <v>-26312929.69820445</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>4.612</v>
+      </c>
       <c r="J361" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -13033,11 +13313,13 @@
         <v>-26883963.67040445</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>4.604</v>
+      </c>
       <c r="J362" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -13072,11 +13354,13 @@
         <v>-26884073.05570444</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>4.575</v>
+      </c>
       <c r="J363" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -13111,11 +13395,13 @@
         <v>-27614495.21420445</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>4.571</v>
+      </c>
       <c r="J364" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -13154,7 +13440,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -13189,11 +13475,13 @@
         <v>-27104836.69430444</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>4.563</v>
+      </c>
       <c r="J366" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -13228,11 +13516,13 @@
         <v>-26251004.64010444</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>4.56</v>
+      </c>
       <c r="J367" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -13267,11 +13557,13 @@
         <v>-26650546.83630444</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>4.562</v>
+      </c>
       <c r="J368" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -13306,11 +13598,13 @@
         <v>-26665116.06570444</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>4.561</v>
+      </c>
       <c r="J369" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -13345,11 +13639,13 @@
         <v>-27501796.97790444</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>4.55</v>
+      </c>
       <c r="J370" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -13388,7 +13684,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -13423,11 +13719,13 @@
         <v>-27253036.08750444</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>4.511</v>
+      </c>
       <c r="J372" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -13466,7 +13764,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -13501,11 +13799,13 @@
         <v>-27502418.59550444</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>4.526</v>
+      </c>
       <c r="J374" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -13544,7 +13844,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -13579,11 +13879,13 @@
         <v>-27551085.08250444</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>4.512</v>
+      </c>
       <c r="J376" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -13622,7 +13924,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -13657,11 +13959,13 @@
         <v>-28059698.46450444</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>4.515</v>
+      </c>
       <c r="J378" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -13700,7 +14004,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -13739,7 +14043,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -13778,7 +14082,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -13817,7 +14121,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -13856,7 +14160,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -13895,7 +14199,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -13934,7 +14238,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -13969,11 +14273,13 @@
         <v>-26776278.72080444</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>4.523</v>
+      </c>
       <c r="J386" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -14012,7 +14318,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -14051,7 +14357,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -14090,7 +14396,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -14129,7 +14435,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -14168,7 +14474,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -14207,7 +14513,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -14246,7 +14552,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -14281,11 +14587,13 @@
         <v>-26864953.95030444</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>4.517</v>
+      </c>
       <c r="J394" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -14320,11 +14628,13 @@
         <v>-26864953.95030444</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>4.514</v>
+      </c>
       <c r="J395" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -14359,11 +14669,13 @@
         <v>-27399996.89160444</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>4.514</v>
+      </c>
       <c r="J396" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -14398,11 +14710,13 @@
         <v>-27673380.08720444</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>4.512</v>
+      </c>
       <c r="J397" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -14437,11 +14751,13 @@
         <v>-26997070.73680444</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>4.51</v>
+      </c>
       <c r="J398" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -14476,11 +14792,13 @@
         <v>-26593022.53120444</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>4.513</v>
+      </c>
       <c r="J399" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -14515,11 +14833,13 @@
         <v>-26592872.39500444</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>4.514</v>
+      </c>
       <c r="J400" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -14558,7 +14878,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -14597,7 +14917,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -14636,7 +14956,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -14675,7 +14995,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -14714,7 +15034,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -14753,7 +15073,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -14792,7 +15112,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -14831,7 +15151,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -14870,7 +15190,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -14905,11 +15225,13 @@
         <v>-26548047.64600443</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>4.51</v>
+      </c>
       <c r="J410" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -14948,7 +15270,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -14987,7 +15309,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -15026,7 +15348,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -15065,7 +15387,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -15104,7 +15426,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -15143,7 +15465,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -15182,7 +15504,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -15221,7 +15543,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -15260,7 +15582,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -15299,7 +15621,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -15338,7 +15660,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -15377,7 +15699,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -15416,7 +15738,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -15455,7 +15777,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -15494,7 +15816,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -15533,7 +15855,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -15568,11 +15890,13 @@
         <v>-24680689.91680443</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>4.543</v>
+      </c>
       <c r="J427" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -15611,7 +15935,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -15650,7 +15974,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -15689,7 +16013,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -15728,7 +16052,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -15767,7 +16091,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -15806,7 +16130,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -15845,7 +16169,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -15884,7 +16208,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -15923,7 +16247,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -15962,7 +16286,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -16001,7 +16325,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -16040,7 +16364,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -16079,7 +16403,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -16118,7 +16442,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -16157,7 +16481,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -16196,7 +16520,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -16235,7 +16559,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -16274,7 +16598,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -16313,7 +16637,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -16352,7 +16676,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -16391,7 +16715,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -16430,7 +16754,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -16469,7 +16793,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -16508,7 +16832,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -16547,7 +16871,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -16586,7 +16910,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -16625,7 +16949,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -16664,7 +16988,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -16703,7 +17027,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -16742,7 +17066,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -16781,7 +17105,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -16820,7 +17144,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -16859,7 +17183,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -16898,7 +17222,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -16937,7 +17261,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -16976,7 +17300,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -17015,7 +17339,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -17054,7 +17378,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -17093,7 +17417,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -17132,7 +17456,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -17171,7 +17495,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -17210,7 +17534,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -17249,7 +17573,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
@@ -17288,7 +17612,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
@@ -17327,7 +17651,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
@@ -17366,7 +17690,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
@@ -17405,7 +17729,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -17444,7 +17768,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
@@ -17483,7 +17807,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -17522,7 +17846,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
@@ -17561,7 +17885,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -17600,7 +17924,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -17639,7 +17963,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -17678,7 +18002,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -17717,7 +18041,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
@@ -17756,7 +18080,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
@@ -17795,7 +18119,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -17834,7 +18158,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -17873,7 +18197,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -17912,7 +18236,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -17951,7 +18275,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -17990,7 +18314,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
@@ -18029,7 +18353,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K490" t="inlineStr">
         <is>
@@ -18068,7 +18392,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K491" t="inlineStr">
         <is>
@@ -18107,7 +18431,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
@@ -18146,7 +18470,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K493" t="inlineStr">
         <is>
@@ -18185,7 +18509,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
@@ -18224,7 +18548,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
@@ -18263,7 +18587,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K496" t="inlineStr">
         <is>
@@ -18302,7 +18626,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K497" t="inlineStr">
         <is>
@@ -18341,7 +18665,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K498" t="inlineStr">
         <is>
@@ -18380,7 +18704,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K499" t="inlineStr">
         <is>
@@ -18419,7 +18743,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K500" t="inlineStr">
         <is>
@@ -18458,7 +18782,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K501" t="inlineStr">
         <is>
@@ -18497,7 +18821,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K502" t="inlineStr">
         <is>
@@ -18536,7 +18860,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K503" t="inlineStr">
         <is>
@@ -18575,7 +18899,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K504" t="inlineStr">
         <is>
@@ -18614,7 +18938,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K505" t="inlineStr">
         <is>
@@ -18653,7 +18977,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K506" t="inlineStr">
         <is>
@@ -18692,7 +19016,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K507" t="inlineStr">
         <is>
@@ -18731,7 +19055,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K508" t="inlineStr">
         <is>
@@ -18770,7 +19094,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K509" t="inlineStr">
         <is>
@@ -18809,7 +19133,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K510" t="inlineStr">
         <is>
@@ -18848,7 +19172,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K511" t="inlineStr">
         <is>
@@ -18887,7 +19211,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K512" t="inlineStr">
         <is>
@@ -18926,7 +19250,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K513" t="inlineStr">
         <is>
@@ -18965,7 +19289,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K514" t="inlineStr">
         <is>
@@ -19004,7 +19328,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K515" t="inlineStr">
         <is>
@@ -19043,7 +19367,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K516" t="inlineStr">
         <is>
@@ -19082,7 +19406,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K517" t="inlineStr">
         <is>
@@ -19121,7 +19445,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K518" t="inlineStr">
         <is>
@@ -19160,7 +19484,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K519" t="inlineStr">
         <is>
@@ -19199,7 +19523,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K520" t="inlineStr">
         <is>
@@ -19238,7 +19562,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K521" t="inlineStr">
         <is>
@@ -19277,7 +19601,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K522" t="inlineStr">
         <is>
@@ -19316,7 +19640,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K523" t="inlineStr">
         <is>
@@ -19355,7 +19679,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K524" t="inlineStr">
         <is>
@@ -19394,7 +19718,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K525" t="inlineStr">
         <is>
@@ -19433,7 +19757,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K526" t="inlineStr">
         <is>
@@ -19472,7 +19796,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K527" t="inlineStr">
         <is>
@@ -19511,7 +19835,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K528" t="inlineStr">
         <is>
@@ -19550,7 +19874,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K529" t="inlineStr">
         <is>
@@ -19589,7 +19913,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K530" t="inlineStr">
         <is>
@@ -19628,7 +19952,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K531" t="inlineStr">
         <is>
@@ -19667,7 +19991,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K532" t="inlineStr">
         <is>
@@ -19706,7 +20030,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K533" t="inlineStr">
         <is>
@@ -19745,7 +20069,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K534" t="inlineStr">
         <is>
@@ -19784,7 +20108,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K535" t="inlineStr">
         <is>
@@ -19823,7 +20147,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K536" t="inlineStr">
         <is>
@@ -19862,7 +20186,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K537" t="inlineStr">
         <is>
@@ -19901,7 +20225,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K538" t="inlineStr">
         <is>
@@ -19940,7 +20264,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K539" t="inlineStr">
         <is>
@@ -19979,7 +20303,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K540" t="inlineStr">
         <is>
@@ -20018,7 +20342,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K541" t="inlineStr">
         <is>
@@ -20057,7 +20381,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K542" t="inlineStr">
         <is>
@@ -20096,7 +20420,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K543" t="inlineStr">
         <is>
@@ -20135,7 +20459,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K544" t="inlineStr">
         <is>
@@ -20174,7 +20498,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K545" t="inlineStr">
         <is>
@@ -20213,7 +20537,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K546" t="inlineStr">
         <is>
@@ -20252,7 +20576,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K547" t="inlineStr">
         <is>
@@ -20291,7 +20615,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K548" t="inlineStr">
         <is>
@@ -20330,7 +20654,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K549" t="inlineStr">
         <is>
@@ -20369,7 +20693,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K550" t="inlineStr">
         <is>
@@ -20408,7 +20732,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K551" t="inlineStr">
         <is>
@@ -20447,7 +20771,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K552" t="inlineStr">
         <is>
@@ -20486,7 +20810,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K553" t="inlineStr">
         <is>
@@ -20525,7 +20849,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K554" t="inlineStr">
         <is>
@@ -20564,7 +20888,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K555" t="inlineStr">
         <is>
@@ -20603,7 +20927,7 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K556" t="inlineStr">
         <is>
@@ -20642,7 +20966,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K557" t="inlineStr">
         <is>
@@ -20681,7 +21005,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K558" t="inlineStr">
         <is>
@@ -20720,7 +21044,7 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K559" t="inlineStr">
         <is>
@@ -20759,7 +21083,7 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K560" t="inlineStr">
         <is>
@@ -20798,7 +21122,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K561" t="inlineStr">
         <is>
@@ -20837,7 +21161,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K562" t="inlineStr">
         <is>
@@ -20876,7 +21200,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K563" t="inlineStr">
         <is>
@@ -20915,7 +21239,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K564" t="inlineStr">
         <is>
@@ -20954,7 +21278,7 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K565" t="inlineStr">
         <is>
@@ -20993,7 +21317,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K566" t="inlineStr">
         <is>
@@ -21032,7 +21356,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K567" t="inlineStr">
         <is>
@@ -21071,7 +21395,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K568" t="inlineStr">
         <is>
@@ -21110,7 +21434,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K569" t="inlineStr">
         <is>
@@ -21149,7 +21473,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K570" t="inlineStr">
         <is>
@@ -21188,7 +21512,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K571" t="inlineStr">
         <is>
@@ -21227,7 +21551,7 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K572" t="inlineStr">
         <is>
@@ -21266,7 +21590,7 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K573" t="inlineStr">
         <is>
@@ -21305,7 +21629,7 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K574" t="inlineStr">
         <is>
@@ -21344,7 +21668,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K575" t="inlineStr">
         <is>
@@ -21383,7 +21707,7 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K576" t="inlineStr">
         <is>
@@ -21422,7 +21746,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K577" t="inlineStr">
         <is>
@@ -21461,7 +21785,7 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K578" t="inlineStr">
         <is>
@@ -21500,7 +21824,7 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K579" t="inlineStr">
         <is>
@@ -21539,7 +21863,7 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K580" t="inlineStr">
         <is>
@@ -21578,7 +21902,7 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K581" t="inlineStr">
         <is>
@@ -21617,7 +21941,7 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K582" t="inlineStr">
         <is>
@@ -21656,7 +21980,7 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K583" t="inlineStr">
         <is>
@@ -21695,7 +22019,7 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K584" t="inlineStr">
         <is>
@@ -21734,7 +22058,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K585" t="inlineStr">
         <is>
@@ -21773,7 +22097,7 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K586" t="inlineStr">
         <is>
@@ -21812,7 +22136,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K587" t="inlineStr">
         <is>
@@ -21851,7 +22175,7 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K588" t="inlineStr">
         <is>
@@ -21890,7 +22214,7 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K589" t="inlineStr">
         <is>
@@ -21929,7 +22253,7 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K590" t="inlineStr">
         <is>
@@ -21968,7 +22292,7 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K591" t="inlineStr">
         <is>
@@ -22007,7 +22331,7 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K592" t="inlineStr">
         <is>
@@ -22046,7 +22370,7 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K593" t="inlineStr">
         <is>
@@ -22085,7 +22409,7 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K594" t="inlineStr">
         <is>
@@ -22124,7 +22448,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K595" t="inlineStr">
         <is>
@@ -22163,7 +22487,7 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K596" t="inlineStr">
         <is>
@@ -22202,7 +22526,7 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K597" t="inlineStr">
         <is>
@@ -22241,7 +22565,7 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K598" t="inlineStr">
         <is>
@@ -22280,7 +22604,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K599" t="inlineStr">
         <is>
@@ -22319,7 +22643,7 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K600" t="inlineStr">
         <is>
@@ -22358,7 +22682,7 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K601" t="inlineStr">
         <is>
@@ -22397,7 +22721,7 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K602" t="inlineStr">
         <is>
@@ -22436,7 +22760,7 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K603" t="inlineStr">
         <is>
@@ -22475,7 +22799,7 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K604" t="inlineStr">
         <is>
@@ -22514,7 +22838,7 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K605" t="inlineStr">
         <is>
@@ -22553,7 +22877,7 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K606" t="inlineStr">
         <is>
@@ -22592,7 +22916,7 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K607" t="inlineStr">
         <is>
@@ -22631,7 +22955,7 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K608" t="inlineStr">
         <is>
@@ -22670,7 +22994,7 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K609" t="inlineStr">
         <is>
@@ -22709,7 +23033,7 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K610" t="inlineStr">
         <is>
@@ -22748,7 +23072,7 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K611" t="inlineStr">
         <is>
@@ -22787,7 +23111,7 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K612" t="inlineStr">
         <is>
@@ -22826,7 +23150,7 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K613" t="inlineStr">
         <is>
@@ -22865,7 +23189,7 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K614" t="inlineStr">
         <is>
@@ -22904,7 +23228,7 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K615" t="inlineStr">
         <is>
@@ -22943,7 +23267,7 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K616" t="inlineStr">
         <is>
@@ -22982,7 +23306,7 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K617" t="inlineStr">
         <is>
@@ -23021,7 +23345,7 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K618" t="inlineStr">
         <is>
@@ -23060,7 +23384,7 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K619" t="inlineStr">
         <is>
@@ -23099,7 +23423,7 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K620" t="inlineStr">
         <is>
@@ -23138,7 +23462,7 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K621" t="inlineStr">
         <is>
@@ -23177,7 +23501,7 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K622" t="inlineStr">
         <is>
@@ -23216,7 +23540,7 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K623" t="inlineStr">
         <is>
@@ -23255,7 +23579,7 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K624" t="inlineStr">
         <is>
@@ -23294,7 +23618,7 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K625" t="inlineStr">
         <is>
@@ -23333,7 +23657,7 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K626" t="inlineStr">
         <is>
@@ -23372,7 +23696,7 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K627" t="inlineStr">
         <is>
@@ -23411,7 +23735,7 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K628" t="inlineStr">
         <is>
@@ -23450,7 +23774,7 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K629" t="inlineStr">
         <is>
@@ -23489,7 +23813,7 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K630" t="inlineStr">
         <is>
@@ -23528,7 +23852,7 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K631" t="inlineStr">
         <is>
@@ -23567,7 +23891,7 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K632" t="inlineStr">
         <is>
@@ -23606,7 +23930,7 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K633" t="inlineStr">
         <is>
@@ -23645,7 +23969,7 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K634" t="inlineStr">
         <is>
@@ -23684,7 +24008,7 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K635" t="inlineStr">
         <is>
@@ -23723,7 +24047,7 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K636" t="inlineStr">
         <is>
@@ -23762,7 +24086,7 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K637" t="inlineStr">
         <is>
@@ -23801,7 +24125,7 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K638" t="inlineStr">
         <is>
@@ -23840,7 +24164,7 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K639" t="inlineStr">
         <is>
@@ -23879,7 +24203,7 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K640" t="inlineStr">
         <is>
@@ -23918,7 +24242,7 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K641" t="inlineStr">
         <is>
@@ -23957,7 +24281,7 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K642" t="inlineStr">
         <is>
@@ -23996,7 +24320,7 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K643" t="inlineStr">
         <is>
@@ -24035,7 +24359,7 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K644" t="inlineStr">
         <is>
@@ -24074,7 +24398,7 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K645" t="inlineStr">
         <is>
@@ -24113,7 +24437,7 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K646" t="inlineStr">
         <is>
@@ -24152,7 +24476,7 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K647" t="inlineStr">
         <is>
@@ -24191,7 +24515,7 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K648" t="inlineStr">
         <is>
@@ -24230,7 +24554,7 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K649" t="inlineStr">
         <is>
@@ -24269,7 +24593,7 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K650" t="inlineStr">
         <is>
@@ -24308,7 +24632,7 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K651" t="inlineStr">
         <is>
@@ -24347,7 +24671,7 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K652" t="inlineStr">
         <is>
@@ -24386,7 +24710,7 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K653" t="inlineStr">
         <is>
@@ -24425,7 +24749,7 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K654" t="inlineStr">
         <is>
@@ -24464,7 +24788,7 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K655" t="inlineStr">
         <is>
@@ -24503,7 +24827,7 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K656" t="inlineStr">
         <is>
@@ -24542,7 +24866,7 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K657" t="inlineStr">
         <is>
@@ -24581,7 +24905,7 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K658" t="inlineStr">
         <is>
@@ -24620,7 +24944,7 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K659" t="inlineStr">
         <is>
@@ -24659,7 +24983,7 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K660" t="inlineStr">
         <is>
@@ -24698,7 +25022,7 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K661" t="inlineStr">
         <is>
@@ -24737,7 +25061,7 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K662" t="inlineStr">
         <is>
@@ -24776,7 +25100,7 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K663" t="inlineStr">
         <is>
@@ -24815,7 +25139,7 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K664" t="inlineStr">
         <is>
@@ -24854,7 +25178,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K665" t="inlineStr">
         <is>
@@ -24893,7 +25217,7 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K666" t="inlineStr">
         <is>
@@ -24928,19 +25252,19 @@
         <v>-23911692.78999557</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="n">
-        <v>4.488</v>
+        <v>4.6</v>
       </c>
       <c r="K667" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L667" t="n">
-        <v>1.026417112299465</v>
+        <v>1</v>
       </c>
       <c r="M667" t="inlineStr"/>
     </row>
@@ -24967,11 +25291,17 @@
         <v>-24236929.79119557</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -25000,11 +25330,17 @@
         <v>-24175409.30459557</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -25033,11 +25369,17 @@
         <v>-24175111.20759557</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -25066,11 +25408,17 @@
         <v>-24175111.20759557</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -25102,8 +25450,14 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -25135,8 +25489,14 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -25168,8 +25528,14 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -25201,8 +25567,14 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -25234,8 +25606,14 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -25267,8 +25645,14 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -25300,8 +25684,14 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -25333,8 +25723,14 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -25366,8 +25762,14 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -25399,8 +25801,14 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -25432,8 +25840,14 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -25465,8 +25879,14 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -25498,8 +25918,14 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -25531,8 +25957,14 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -25564,8 +25996,14 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -25597,8 +26035,14 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -25630,8 +26074,14 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -25663,8 +26113,14 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -25696,8 +26152,14 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -25729,8 +26191,14 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -25762,8 +26230,14 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -25795,8 +26269,14 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -25828,8 +26308,14 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -25861,8 +26347,14 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -25894,8 +26386,14 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -25927,8 +26425,14 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -25960,8 +26464,14 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -25993,8 +26503,14 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -26026,8 +26542,14 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -26059,8 +26581,14 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -26092,8 +26620,14 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -26125,8 +26659,14 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -26158,8 +26698,14 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -26188,13 +26734,19 @@
         <v>-16404746.7142715</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L705" t="n">
-        <v>1</v>
+        <v>1.045</v>
       </c>
       <c r="M705" t="inlineStr"/>
     </row>
@@ -26221,7 +26773,7 @@
         <v>-16423848.47924743</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -26254,7 +26806,7 @@
         <v>-17042105.67014743</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -26419,7 +26971,7 @@
         <v>-17116922.63074743</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -26452,7 +27004,7 @@
         <v>-17612359.11544743</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -26485,7 +27037,7 @@
         <v>-17612255.59024743</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -26518,7 +27070,7 @@
         <v>-18422049.55014743</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -26551,7 +27103,7 @@
         <v>-18684537.95564743</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -26584,7 +27136,7 @@
         <v>-19145612.19264743</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -26782,7 +27334,7 @@
         <v>-18141273.57294744</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -26815,7 +27367,7 @@
         <v>-18157331.14084743</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -26848,7 +27400,7 @@
         <v>-18687256.53554743</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -26881,7 +27433,7 @@
         <v>-18611930.04604743</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -26914,7 +27466,7 @@
         <v>-17879206.20604743</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -26947,7 +27499,7 @@
         <v>-17377492.50964743</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -26980,7 +27532,7 @@
         <v>-17377492.50964743</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -27013,7 +27565,7 @@
         <v>-18052498.03754743</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -27046,7 +27598,7 @@
         <v>-17840614.18444743</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -27079,7 +27631,7 @@
         <v>-18353912.55344743</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -27112,7 +27664,7 @@
         <v>-18353912.55344743</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -27145,7 +27697,7 @@
         <v>-17858847.86474742</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -27178,7 +27730,7 @@
         <v>-17919976.45684742</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -27211,7 +27763,7 @@
         <v>-17919273.61454742</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -27244,7 +27796,7 @@
         <v>-17161125.47488296</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -27277,7 +27829,7 @@
         <v>-17161125.47488296</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -27310,7 +27862,7 @@
         <v>-17567140.73621851</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -27343,7 +27895,7 @@
         <v>-16846341.39051851</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -27376,7 +27928,7 @@
         <v>-16847513.90300296</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -27409,7 +27961,7 @@
         <v>-16079644.71520296</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -27442,7 +27994,7 @@
         <v>-17275953.67440296</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -27475,7 +28027,7 @@
         <v>-17275953.67440296</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -27508,7 +28060,7 @@
         <v>-17288263.92690296</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -27541,7 +28093,7 @@
         <v>-16561816.01840296</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -27574,7 +28126,7 @@
         <v>-16601816.01840296</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -27640,7 +28192,7 @@
         <v>-16606635.98670296</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -27706,7 +28258,7 @@
         <v>-16089718.63890296</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -27739,7 +28291,7 @@
         <v>-16402123.00520296</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -27772,7 +28324,7 @@
         <v>-16402123.00520296</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -27805,7 +28357,7 @@
         <v>-16256768.56940296</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -27838,7 +28390,7 @@
         <v>-15125171.99078741</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -27871,7 +28423,7 @@
         <v>-15125171.99078741</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -27904,7 +28456,7 @@
         <v>-13450979.79647185</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -27937,7 +28489,7 @@
         <v>-13450979.79647185</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
